--- a/uploads/사고관리_2024.xlsx
+++ b/uploads/사고관리_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\HanMi\ERP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A00085B-523D-45B2-999D-DBD96E4A7BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C494D67E-68AB-4536-ABE3-73A45BD3FC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1584C468-C8C3-4370-969E-25E1637C2372}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="1397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="1396">
   <si>
     <t>중구 을지로1가 하나은행본점 앞 노상</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -911,10 +911,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>조수호</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>59저1589</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -4143,19 +4139,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>남/66, 남/54, 
-남/55, 
-남/44, 
-여/28, 
-남/56,  -, 
-여/68, 
-여/48, 
-남/59, 
-여/73, 
-남/50</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>치료지급</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4172,36 +4155,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>4,480,000/ 
-600,000/ 
-1,077,850/ 
-500,000/ 
-500,000/ 
-500,000/ 
-2,400,000/ 
-900,000/ 
-1,500,000/ 
-1,020,900/ 
-700,000/ 
-1,500,000</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>(합의중)/ 
-1,100,000/ 
-1,077,850/ 
-500,000/ 
-1,200,000/ 
-555,830/ 
-1,864,000/ 
-900,000/ 
-1,500,000/ 
-1,020,900/ 
-700,000/ 
-3,728,000</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>3,100,000/ 
 3,400,000</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -4229,10 +4182,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>권도한/ 김진욱/ 김용대/ 김태영/ 김희지/ 이경택/ 이태득/ 박성희/ 박알레/ 배성진/ 배정임/ 최현수</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>홍석원/  
 장우석</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -4812,6 +4761,27 @@
   <si>
     <t>공업사연락처</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">피해자 인적사항 및 보상금:
+권도한(남/66) 합의중 / 김진욱(남/54) 1,100,000 / 김용대(남/55)1,077,850 / 
+김태영(남/44) 500,000 / 김희지(여/28) 1,200,000 / 이경택(남/56) 555,830 / 
+이태득(미상) 1,864,000 / 박성희(여/68) 900,000 / 박알레(여/48) 1,500,000 / 
+배성진(남/59) 1,020,900 / 배정임(여/73) 700,000 / 최현수(남/50) 3,728,000
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사고경위 참고</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7209,8 +7179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2862407F-F83A-48D0-89D0-379E47A62224}">
   <dimension ref="A1:AK59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" topLeftCell="L25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7236,8 +7206,7 @@
     <col min="20" max="20" width="5.625" customWidth="1"/>
     <col min="21" max="21" width="16.25" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.375" customWidth="1"/>
-    <col min="23" max="23" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="9.75" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11.375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11.5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6.875" customWidth="1"/>
@@ -7264,25 +7233,25 @@
         <v>176</v>
       </c>
       <c r="D1" s="79" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="E1" s="79" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="F1" s="79" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="G1" s="81" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H1" s="81" t="s">
         <v>1200</v>
-      </c>
-      <c r="H1" s="81" t="s">
-        <v>1201</v>
       </c>
       <c r="I1" s="81" t="s">
         <v>186</v>
       </c>
       <c r="J1" s="81" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="K1" s="82" t="s">
         <v>178</v>
@@ -7297,16 +7266,16 @@
         <v>189</v>
       </c>
       <c r="O1" s="154" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="P1" s="85" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="Q1" s="79" t="s">
         <v>179</v>
       </c>
       <c r="R1" s="79" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="S1" s="81" t="s">
         <v>180</v>
@@ -7315,60 +7284,60 @@
         <v>181</v>
       </c>
       <c r="U1" s="154" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="V1" s="93" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="W1" s="90" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="X1" s="86" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="Y1" s="79" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="Z1" s="79" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="AA1" s="79" t="s">
         <v>177</v>
       </c>
       <c r="AB1" s="154" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="AC1" s="154" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="AD1" s="93" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
       <c r="AE1" s="135" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="AF1" s="86" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="AG1" s="175" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="AH1" s="173" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="AI1" s="89" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="AJ1" s="185" t="s">
         <v>182</v>
       </c>
       <c r="AK1" s="193" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B2" s="2">
         <v>45294.503472222219</v>
@@ -7380,7 +7349,7 @@
         <v>1900</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="F2" s="4">
         <v>6210</v>
@@ -7406,16 +7375,16 @@
         <v>2401026</v>
       </c>
       <c r="O2" s="155" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>6</v>
@@ -7424,10 +7393,10 @@
         <v>7</v>
       </c>
       <c r="U2" s="163" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="V2" s="140" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="W2" s="103" t="s">
         <v>8</v>
@@ -7454,12 +7423,12 @@
       </c>
       <c r="AJ2" s="186"/>
       <c r="AK2" s="194" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B3" s="2">
         <v>45310.642361111109</v>
@@ -7471,7 +7440,7 @@
         <v>1868</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
       <c r="F3" s="17">
         <v>6236</v>
@@ -7486,7 +7455,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="K3" s="19">
         <v>500000</v>
@@ -7515,16 +7484,16 @@
         <v>8</v>
       </c>
       <c r="Y3" s="17" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="Z3" s="17" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="AA3" s="17" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="AB3" s="156" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="AC3" s="212"/>
       <c r="AD3" s="215"/>
@@ -7541,12 +7510,12 @@
       </c>
       <c r="AJ3" s="187"/>
       <c r="AK3" s="195" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B4" s="2">
         <v>45314.364583333336</v>
@@ -7558,7 +7527,7 @@
         <v>1808</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="F4" s="17">
         <v>6269</v>
@@ -7600,10 +7569,10 @@
         <v>8</v>
       </c>
       <c r="Y4" s="17" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="Z4" s="17" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="AA4" s="17"/>
       <c r="AB4" s="156"/>
@@ -7622,12 +7591,12 @@
       </c>
       <c r="AJ4" s="187"/>
       <c r="AK4" s="204" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B5" s="2">
         <v>45328.6875</v>
@@ -7639,7 +7608,7 @@
         <v>1893</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="18" t="s">
@@ -7680,10 +7649,10 @@
       </c>
       <c r="Y5" s="17"/>
       <c r="Z5" s="17" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="AA5" s="17" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="AB5" s="156"/>
       <c r="AC5" s="212"/>
@@ -7704,7 +7673,7 @@
     </row>
     <row r="6" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B6" s="2">
         <v>45336.73541666667</v>
@@ -7716,7 +7685,7 @@
         <v>1859</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="18" t="s">
@@ -7740,7 +7709,7 @@
         <v>5164</v>
       </c>
       <c r="O6" s="156" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="P6" s="22"/>
       <c r="Q6" s="17" t="s">
@@ -7754,7 +7723,7 @@
         <v>26</v>
       </c>
       <c r="U6" s="164" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="V6" s="94"/>
       <c r="W6" s="104">
@@ -7776,7 +7745,7 @@
         <v>8</v>
       </c>
       <c r="AG6" s="177" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="AH6" s="23"/>
       <c r="AI6" s="30" t="s">
@@ -7787,7 +7756,7 @@
     </row>
     <row r="7" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B7" s="2">
         <v>45323.795138888891</v>
@@ -7837,13 +7806,13 @@
         <v>8</v>
       </c>
       <c r="Y7" s="17" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="Z7" s="17" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="AA7" s="17" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="AB7" s="156"/>
       <c r="AC7" s="212"/>
@@ -7855,7 +7824,7 @@
         <v>750000</v>
       </c>
       <c r="AG7" s="177" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="AH7" s="23"/>
       <c r="AI7" s="32" t="s">
@@ -7866,7 +7835,7 @@
     </row>
     <row r="8" spans="1:37" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B8" s="2">
         <v>45342.464583333334</v>
@@ -7900,11 +7869,11 @@
         <v>2405811</v>
       </c>
       <c r="O8" s="156" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="34" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="R8" s="34"/>
       <c r="S8" s="6" t="s">
@@ -7914,23 +7883,23 @@
         <v>26</v>
       </c>
       <c r="U8" s="164" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="V8" s="94"/>
       <c r="W8" s="105" t="s">
         <v>33</v>
       </c>
       <c r="X8" s="92" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="Y8" s="17" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="Z8" s="17" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="AA8" s="17" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="AB8" s="156"/>
       <c r="AC8" s="212"/>
@@ -7951,7 +7920,7 @@
     </row>
     <row r="9" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B9" s="2">
         <v>45386.107638888891</v>
@@ -8001,13 +7970,13 @@
         <v>8</v>
       </c>
       <c r="Y9" s="17" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="Z9" s="17" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="AA9" s="17" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="AB9" s="157"/>
       <c r="AC9" s="51"/>
@@ -8028,7 +7997,7 @@
     </row>
     <row r="10" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B10" s="2">
         <v>45397.072916666664</v>
@@ -8062,7 +8031,7 @@
         <v>202411973</v>
       </c>
       <c r="O10" s="156" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="P10" s="22"/>
       <c r="Q10" s="17" t="s">
@@ -8105,7 +8074,7 @@
     </row>
     <row r="11" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B11" s="2">
         <v>45400.805555555555</v>
@@ -8155,13 +8124,13 @@
         <v>8</v>
       </c>
       <c r="Y11" s="17" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="Z11" s="17" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="AA11" s="17" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="AB11" s="156"/>
       <c r="AC11" s="212"/>
@@ -8182,7 +8151,7 @@
     </row>
     <row r="12" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B12" s="2">
         <v>45406.6875</v>
@@ -8232,13 +8201,13 @@
         <v>8</v>
       </c>
       <c r="Y12" s="37" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="Z12" s="37" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="AA12" s="37" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="AB12" s="158"/>
       <c r="AC12" s="67"/>
@@ -8259,7 +8228,7 @@
     </row>
     <row r="13" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B13" s="2">
         <v>45426.15625</v>
@@ -8309,13 +8278,13 @@
         <v>8</v>
       </c>
       <c r="Y13" s="41" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="Z13" s="41" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="AA13" s="41" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="AB13" s="158"/>
       <c r="AC13" s="67"/>
@@ -8336,7 +8305,7 @@
     </row>
     <row r="14" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B14" s="2">
         <v>45429.277777777781</v>
@@ -8386,13 +8355,13 @@
         <v>8</v>
       </c>
       <c r="Y14" s="37" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="Z14" s="37" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="AA14" s="37" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="AB14" s="158"/>
       <c r="AC14" s="67"/>
@@ -8413,7 +8382,7 @@
     </row>
     <row r="15" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B15" s="2">
         <v>45430.402777777781</v>
@@ -8463,13 +8432,13 @@
         <v>8</v>
       </c>
       <c r="Y15" s="37" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="Z15" s="37" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="AA15" s="37" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="AB15" s="158"/>
       <c r="AC15" s="67"/>
@@ -8490,7 +8459,7 @@
     </row>
     <row r="16" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B16" s="2">
         <v>45433.888888888891</v>
@@ -8524,7 +8493,7 @@
         <v>202415230</v>
       </c>
       <c r="O16" s="156" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="P16" s="22"/>
       <c r="Q16" s="17"/>
@@ -8540,13 +8509,13 @@
         <v>8</v>
       </c>
       <c r="Y16" s="37" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="Z16" s="37" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="AA16" s="37" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="AB16" s="158"/>
       <c r="AC16" s="67"/>
@@ -8567,7 +8536,7 @@
     </row>
     <row r="17" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B17" s="2">
         <v>45437.210416666669</v>
@@ -8638,7 +8607,7 @@
     </row>
     <row r="18" spans="1:37" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B18" s="2">
         <v>45440.409722222219</v>
@@ -8672,7 +8641,7 @@
         <v>15943</v>
       </c>
       <c r="O18" s="158" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="P18" s="44"/>
       <c r="Q18" s="37" t="s">
@@ -8686,7 +8655,7 @@
         <v>26</v>
       </c>
       <c r="U18" s="165" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="V18" s="96"/>
       <c r="W18" s="104">
@@ -8696,13 +8665,13 @@
         <v>3356000</v>
       </c>
       <c r="Y18" s="37" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="Z18" s="37" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="AA18" s="37" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="AB18" s="206"/>
       <c r="AC18" s="68"/>
@@ -8723,7 +8692,7 @@
     </row>
     <row r="19" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B19" s="2">
         <v>45451.501388888886</v>
@@ -8771,7 +8740,7 @@
         <v>66</v>
       </c>
       <c r="U19" s="165" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="V19" s="95"/>
       <c r="W19" s="104" t="s">
@@ -8782,10 +8751,10 @@
       </c>
       <c r="Y19" s="37"/>
       <c r="Z19" s="37" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="AA19" s="37" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="AB19" s="206"/>
       <c r="AC19" s="68"/>
@@ -8806,7 +8775,7 @@
     </row>
     <row r="20" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B20" s="2">
         <v>45454.345833333333</v>
@@ -8856,13 +8825,13 @@
         <v>8</v>
       </c>
       <c r="Y20" s="37" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="Z20" s="37" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="AA20" s="37" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="AB20" s="206"/>
       <c r="AC20" s="68"/>
@@ -8883,7 +8852,7 @@
     </row>
     <row r="21" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B21" s="2">
         <v>45456.513888888891</v>
@@ -8917,7 +8886,7 @@
         <v>17398</v>
       </c>
       <c r="O21" s="158" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="P21" s="44"/>
       <c r="Q21" s="37"/>
@@ -8933,13 +8902,13 @@
         <v>8</v>
       </c>
       <c r="Y21" s="37" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="Z21" s="37" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="AA21" s="37" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="AB21" s="206"/>
       <c r="AC21" s="68"/>
@@ -8962,7 +8931,7 @@
     </row>
     <row r="22" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B22" s="2">
         <v>45463.270833333336</v>
@@ -9012,13 +8981,13 @@
         <v>8</v>
       </c>
       <c r="Y22" s="37" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="Z22" s="37" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="AA22" s="37" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
       <c r="AB22" s="206"/>
       <c r="AC22" s="68"/>
@@ -9039,7 +9008,7 @@
     </row>
     <row r="23" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B23" s="2">
         <v>45497.136805555558</v>
@@ -9089,13 +9058,13 @@
         <v>8</v>
       </c>
       <c r="Y23" s="37" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
       <c r="Z23" s="37" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="AA23" s="37" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="AB23" s="206"/>
       <c r="AC23" s="68"/>
@@ -9116,7 +9085,7 @@
     </row>
     <row r="24" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B24" s="2">
         <v>45497.225694444445</v>
@@ -9187,7 +9156,7 @@
     </row>
     <row r="25" spans="1:37" ht="24" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B25" s="2">
         <v>45509.510416666664</v>
@@ -9221,7 +9190,7 @@
         <v>22849</v>
       </c>
       <c r="O25" s="158" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="P25" s="44"/>
       <c r="Q25" s="37" t="s">
@@ -9243,13 +9212,13 @@
         <v>1538000</v>
       </c>
       <c r="Y25" s="37" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="Z25" s="37" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="AA25" s="37" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="AB25" s="206"/>
       <c r="AC25" s="68"/>
@@ -9261,7 +9230,7 @@
         <v>1091700</v>
       </c>
       <c r="AG25" s="177" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="AH25" s="23"/>
       <c r="AI25" s="48" t="s">
@@ -9274,7 +9243,7 @@
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B26" s="2">
         <v>45517.986111111109</v>
@@ -9324,13 +9293,13 @@
         <v>8</v>
       </c>
       <c r="Y26" s="37" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="Z26" s="37" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="AA26" s="37" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="AB26" s="206"/>
       <c r="AC26" s="68"/>
@@ -9353,7 +9322,7 @@
     </row>
     <row r="27" spans="1:37" ht="24" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B27" s="2">
         <v>45524.135416666664</v>
@@ -9387,7 +9356,7 @@
         <v>24533</v>
       </c>
       <c r="O27" s="158" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="P27" s="44"/>
       <c r="Q27" s="37" t="s">
@@ -9409,13 +9378,13 @@
         <v>500000</v>
       </c>
       <c r="Y27" s="37" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
       <c r="Z27" s="37" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="AA27" s="37" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="AB27" s="206"/>
       <c r="AC27" s="68"/>
@@ -9438,7 +9407,7 @@
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B28" s="2">
         <v>45526.111111111109</v>
@@ -9511,7 +9480,7 @@
     </row>
     <row r="29" spans="1:37" ht="24" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B29" s="2">
         <v>45536.885416666664</v>
@@ -9565,13 +9534,13 @@
         <v>8</v>
       </c>
       <c r="Y29" s="37" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
       <c r="Z29" s="37" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="AA29" s="37" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="AB29" s="206"/>
       <c r="AC29" s="68"/>
@@ -9583,7 +9552,7 @@
         <v>8</v>
       </c>
       <c r="AG29" s="177" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="AH29" s="23"/>
       <c r="AI29" s="48" t="s">
@@ -9596,7 +9565,7 @@
     </row>
     <row r="30" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B30" s="2">
         <v>45549.354166666664</v>
@@ -9646,13 +9615,13 @@
         <v>8</v>
       </c>
       <c r="Y30" s="37" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="Z30" s="37" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="AA30" s="37" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="AB30" s="206"/>
       <c r="AC30" s="68"/>
@@ -9673,7 +9642,7 @@
     </row>
     <row r="31" spans="1:37" ht="24" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B31" s="2">
         <v>45559.548611111109</v>
@@ -9707,7 +9676,7 @@
         <v>28501</v>
       </c>
       <c r="O31" s="158" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="P31" s="44"/>
       <c r="Q31" s="37" t="s">
@@ -9721,7 +9690,7 @@
         <v>109</v>
       </c>
       <c r="U31" s="165" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="V31" s="95"/>
       <c r="W31" s="104">
@@ -9731,13 +9700,13 @@
         <v>110</v>
       </c>
       <c r="Y31" s="37" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
       <c r="Z31" s="37" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="AA31" s="37" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="AB31" s="206"/>
       <c r="AC31" s="68"/>
@@ -9760,7 +9729,7 @@
     </row>
     <row r="32" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B32" s="2">
         <v>45563.128472222219</v>
@@ -9810,13 +9779,13 @@
         <v>8</v>
       </c>
       <c r="Y32" s="37" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="Z32" s="37" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="AA32" s="37" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="AB32" s="206"/>
       <c r="AC32" s="68"/>
@@ -9839,7 +9808,7 @@
     </row>
     <row r="33" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B33" s="2">
         <v>45570.541666666664</v>
@@ -9910,7 +9879,7 @@
     </row>
     <row r="34" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A34" s="25" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B34" s="2">
         <v>45576.565972222219</v>
@@ -9944,7 +9913,7 @@
         <v>30369</v>
       </c>
       <c r="O34" s="158" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="P34" s="44"/>
       <c r="Q34" s="37" t="s">
@@ -9989,7 +9958,7 @@
     </row>
     <row r="35" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B35" s="2">
         <v>45579.253472222219</v>
@@ -10060,7 +10029,7 @@
     </row>
     <row r="36" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B36" s="2">
         <v>45583.138888888891</v>
@@ -10131,7 +10100,7 @@
     </row>
     <row r="37" spans="1:37" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B37" s="2">
         <v>45586.503472222219</v>
@@ -10165,7 +10134,7 @@
         <v>31242</v>
       </c>
       <c r="O37" s="158" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="P37" s="44"/>
       <c r="Q37" s="37"/>
@@ -10181,13 +10150,13 @@
         <v>8</v>
       </c>
       <c r="Y37" s="37" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="Z37" s="37" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="AA37" s="37" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="AB37" s="206"/>
       <c r="AC37" s="68"/>
@@ -10210,7 +10179,7 @@
     </row>
     <row r="38" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A38" s="25" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B38" s="2">
         <v>45588.09375</v>
@@ -10260,10 +10229,10 @@
         <v>8</v>
       </c>
       <c r="Y38" s="37" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
       <c r="Z38" s="37" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="AA38" s="37"/>
       <c r="AB38" s="206"/>
@@ -10287,7 +10256,7 @@
     </row>
     <row r="39" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B39" s="2">
         <v>45589.472222222219</v>
@@ -10358,7 +10327,7 @@
     </row>
     <row r="40" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A40" s="25" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B40" s="2">
         <v>45590.673611111109</v>
@@ -10408,13 +10377,13 @@
         <v>8</v>
       </c>
       <c r="Y40" s="37" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
       <c r="Z40" s="37" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="AA40" s="37" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="AB40" s="206"/>
       <c r="AC40" s="68"/>
@@ -10433,9 +10402,9 @@
       <c r="AJ40" s="191"/>
       <c r="AK40" s="195"/>
     </row>
-    <row r="41" spans="1:37" ht="144" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37" ht="84" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B41" s="2">
         <v>45593.17083333333</v>
@@ -10469,35 +10438,35 @@
         <v>3220</v>
       </c>
       <c r="O41" s="158" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="P41" s="44"/>
       <c r="Q41" s="41" t="s">
-        <v>1217</v>
+        <v>1395</v>
       </c>
       <c r="R41" s="41"/>
       <c r="S41" s="43" t="s">
-        <v>1204</v>
+        <v>1395</v>
       </c>
       <c r="T41" s="43" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="U41" s="166"/>
       <c r="V41" s="95"/>
-      <c r="W41" s="105" t="s">
-        <v>1209</v>
-      </c>
-      <c r="X41" s="92" t="s">
-        <v>1210</v>
+      <c r="W41" s="105">
+        <v>15678750</v>
+      </c>
+      <c r="X41" s="92">
+        <v>14146580</v>
       </c>
       <c r="Y41" s="37" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="Z41" s="37" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="AA41" s="37" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="AB41" s="206"/>
       <c r="AC41" s="68"/>
@@ -10516,11 +10485,13 @@
       <c r="AJ41" s="192" t="s">
         <v>141</v>
       </c>
-      <c r="AK41" s="195"/>
+      <c r="AK41" s="204" t="s">
+        <v>1394</v>
+      </c>
     </row>
     <row r="42" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A42" s="25" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B42" s="2">
         <v>45598.052083333336</v>
@@ -10591,7 +10562,7 @@
     </row>
     <row r="43" spans="1:37" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B43" s="2">
         <v>45602.465277777781</v>
@@ -10662,7 +10633,7 @@
     </row>
     <row r="44" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A44" s="25" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B44" s="2">
         <v>45610.5</v>
@@ -10733,7 +10704,7 @@
     </row>
     <row r="45" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B45" s="2">
         <v>45617.854166666664</v>
@@ -10767,7 +10738,7 @@
         <v>35134</v>
       </c>
       <c r="O45" s="159" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="P45" s="60"/>
       <c r="Q45" s="54"/>
@@ -10783,13 +10754,13 @@
         <v>8</v>
       </c>
       <c r="Y45" s="54" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="Z45" s="54" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
       <c r="AA45" s="54" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="AB45" s="208"/>
       <c r="AC45" s="68"/>
@@ -10810,7 +10781,7 @@
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A46" s="25" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B46" s="2">
         <v>45619.590277777781</v>
@@ -10881,7 +10852,7 @@
     </row>
     <row r="47" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B47" s="2">
         <v>45622.944444444445</v>
@@ -10952,7 +10923,7 @@
     </row>
     <row r="48" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A48" s="25" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B48" s="2">
         <v>45623.520833333336</v>
@@ -10986,7 +10957,7 @@
         <v>35851</v>
       </c>
       <c r="O48" s="158" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="P48" s="44"/>
       <c r="Q48" s="37"/>
@@ -11002,13 +10973,13 @@
         <v>8</v>
       </c>
       <c r="Y48" s="37" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="Z48" s="37" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="AA48" s="37" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="AB48" s="206"/>
       <c r="AC48" s="68"/>
@@ -11029,7 +11000,7 @@
     </row>
     <row r="49" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B49" s="2">
         <v>45625.420138888891</v>
@@ -11100,7 +11071,7 @@
     </row>
     <row r="50" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A50" s="25" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B50" s="2">
         <v>45629.086805555555</v>
@@ -11171,7 +11142,7 @@
     </row>
     <row r="51" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B51" s="2">
         <v>45631.479166666664</v>
@@ -11221,13 +11192,13 @@
         <v>8</v>
       </c>
       <c r="Y51" s="37" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="Z51" s="37" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="AA51" s="37" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="AB51" s="206"/>
       <c r="AC51" s="68"/>
@@ -11248,7 +11219,7 @@
     </row>
     <row r="52" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A52" s="25" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B52" s="2">
         <v>45631.90625</v>
@@ -11319,7 +11290,7 @@
     </row>
     <row r="53" spans="1:37" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B53" s="2">
         <v>45631.673611111109</v>
@@ -11396,7 +11367,7 @@
     </row>
     <row r="54" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A54" s="25" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B54" s="2">
         <v>45635.461805555555</v>
@@ -11446,13 +11417,13 @@
         <v>8</v>
       </c>
       <c r="Y54" s="74" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="Z54" s="74" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="AA54" s="74" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="AB54" s="161"/>
       <c r="AC54" s="67"/>
@@ -11475,7 +11446,7 @@
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B55" s="2">
         <v>45637.486111111109</v>
@@ -11525,10 +11496,10 @@
         <v>8</v>
       </c>
       <c r="Y55" s="52" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="Z55" s="52" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="AA55" s="52"/>
       <c r="AB55" s="207"/>
@@ -11550,7 +11521,7 @@
     </row>
     <row r="56" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A56" s="25" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B56" s="2">
         <v>45645.465277777781</v>
@@ -11621,7 +11592,7 @@
     </row>
     <row r="57" spans="1:37" ht="24" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B57" s="2">
         <v>45642.756944444445</v>
@@ -11655,11 +11626,11 @@
         <v>37659</v>
       </c>
       <c r="O57" s="161" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="P57" s="72"/>
       <c r="Q57" s="76" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="R57" s="76"/>
       <c r="S57" s="68" t="s">
@@ -11674,25 +11645,25 @@
         <v>8</v>
       </c>
       <c r="X57" s="102" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="Y57" s="76" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="Z57" s="76" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="AA57" s="76" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="AB57" s="210"/>
       <c r="AC57" s="68"/>
       <c r="AD57" s="142"/>
       <c r="AE57" s="139" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="AF57" s="77" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="AG57" s="180"/>
       <c r="AH57" s="174"/>
@@ -11706,7 +11677,7 @@
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A58" s="25" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B58" s="2">
         <v>45647.086805555555</v>
@@ -11759,10 +11730,10 @@
         <v>173</v>
       </c>
       <c r="Z58" s="66" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="AA58" s="66" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="AB58" s="210"/>
       <c r="AC58" s="68"/>
@@ -11783,7 +11754,7 @@
     </row>
     <row r="59" spans="1:37" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A59" s="25" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B59" s="2">
         <v>45637.020833333336</v>
@@ -11817,7 +11788,7 @@
         <v>175</v>
       </c>
       <c r="O59" s="161" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="P59" s="72"/>
       <c r="Q59" s="66"/>
@@ -11833,13 +11804,13 @@
         <v>8</v>
       </c>
       <c r="Y59" s="66" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="Z59" s="66" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="AA59" s="66" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="AB59" s="161"/>
       <c r="AC59" s="67"/>
@@ -11851,7 +11822,7 @@
         <v>1100000</v>
       </c>
       <c r="AG59" s="179" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="AH59" s="174"/>
       <c r="AI59" s="75" t="s">
@@ -11959,7 +11930,7 @@
   <dimension ref="A1:AA48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11997,87 +11968,87 @@
         <v>183</v>
       </c>
       <c r="B1" s="128" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C1" s="129" t="s">
         <v>1202</v>
       </c>
-      <c r="C1" s="129" t="s">
-        <v>1203</v>
-      </c>
       <c r="D1" s="129" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E1" s="130" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F1" s="169" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="G1" s="131" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="H1" s="132" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I1" s="132" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="J1" s="132" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="K1" s="129" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="L1" s="129" t="s">
         <v>185</v>
       </c>
       <c r="M1" s="129" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="N1" s="134" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O1" s="132" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="P1" s="129" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="Q1" s="129" t="s">
         <v>177</v>
       </c>
       <c r="R1" s="131" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="S1" s="132" t="s">
+        <v>495</v>
+      </c>
+      <c r="T1" s="129" t="s">
         <v>496</v>
       </c>
-      <c r="T1" s="129" t="s">
+      <c r="U1" s="129" t="s">
         <v>497</v>
       </c>
-      <c r="U1" s="129" t="s">
+      <c r="V1" s="131" t="s">
+        <v>1228</v>
+      </c>
+      <c r="W1" s="133" t="s">
         <v>498</v>
       </c>
-      <c r="V1" s="131" t="s">
-        <v>1233</v>
-      </c>
-      <c r="W1" s="133" t="s">
+      <c r="X1" s="134" t="s">
         <v>499</v>
       </c>
-      <c r="X1" s="134" t="s">
-        <v>500</v>
-      </c>
       <c r="Y1" s="87" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="Z1" s="181" t="s">
         <v>190</v>
       </c>
       <c r="AA1" s="197" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="106" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B2" s="2">
         <v>45299.357638888891</v>
@@ -12095,7 +12066,7 @@
         <v>1861</v>
       </c>
       <c r="I2" s="111" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="J2" s="111">
         <v>6106</v>
@@ -12104,10 +12075,10 @@
         <v>192</v>
       </c>
       <c r="L2" s="108" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M2" s="108" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="N2" s="200">
         <v>700000</v>
@@ -12149,12 +12120,12 @@
         <v>200</v>
       </c>
       <c r="AA2" s="198" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="114" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B3" s="2">
         <v>45307.267361111109</v>
@@ -12174,7 +12145,7 @@
         <v>1902</v>
       </c>
       <c r="I3" s="119" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="J3" s="119">
         <v>6283</v>
@@ -12183,7 +12154,7 @@
         <v>90</v>
       </c>
       <c r="L3" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M3" s="116"/>
       <c r="N3" s="201">
@@ -12229,7 +12200,7 @@
     </row>
     <row r="4" spans="1:27" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A4" s="114" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B4" s="2">
         <v>45311.545138888891</v>
@@ -12247,7 +12218,7 @@
         <v>1886</v>
       </c>
       <c r="I4" s="119" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="J4" s="119">
         <v>6060</v>
@@ -12256,7 +12227,7 @@
         <v>212</v>
       </c>
       <c r="L4" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M4" s="116"/>
       <c r="N4" s="201">
@@ -12300,7 +12271,7 @@
     </row>
     <row r="5" spans="1:27" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A5" s="114" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B5" s="2">
         <v>45311.680555555555</v>
@@ -12320,42 +12291,44 @@
         <v>1915</v>
       </c>
       <c r="I5" s="119" t="s">
-        <v>1389</v>
-      </c>
-      <c r="J5" s="119"/>
+        <v>1384</v>
+      </c>
+      <c r="J5" s="119" t="s">
+        <v>1392</v>
+      </c>
       <c r="K5" s="116" t="s">
-        <v>222</v>
+        <v>1393</v>
       </c>
       <c r="L5" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M5" s="116"/>
       <c r="N5" s="201">
         <v>500000</v>
       </c>
       <c r="O5" s="119" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P5" s="116" t="s">
         <v>70</v>
       </c>
       <c r="Q5" s="116" t="s">
+        <v>223</v>
+      </c>
+      <c r="R5" s="118" t="s">
         <v>224</v>
-      </c>
-      <c r="R5" s="118" t="s">
-        <v>225</v>
       </c>
       <c r="S5" s="119" t="s">
         <v>217</v>
       </c>
       <c r="T5" s="116" t="s">
+        <v>225</v>
+      </c>
+      <c r="U5" s="116" t="s">
         <v>226</v>
       </c>
-      <c r="U5" s="116" t="s">
+      <c r="V5" s="118" t="s">
         <v>227</v>
-      </c>
-      <c r="V5" s="118" t="s">
-        <v>228</v>
       </c>
       <c r="W5" s="120" t="s">
         <v>8</v>
@@ -12367,19 +12340,19 @@
         <v>9</v>
       </c>
       <c r="Z5" s="183" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AA5" s="199"/>
     </row>
     <row r="6" spans="1:27" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="114" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B6" s="2">
         <v>45316.510416666664</v>
       </c>
       <c r="C6" s="115" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D6" s="116" t="s">
         <v>35</v>
@@ -12391,42 +12364,42 @@
         <v>1859</v>
       </c>
       <c r="I6" s="119" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="J6" s="119"/>
       <c r="K6" s="116" t="s">
         <v>45</v>
       </c>
       <c r="L6" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M6" s="116"/>
       <c r="N6" s="201">
         <v>500000</v>
       </c>
       <c r="O6" s="119" t="s">
+        <v>230</v>
+      </c>
+      <c r="P6" s="116" t="s">
         <v>231</v>
       </c>
-      <c r="P6" s="116" t="s">
+      <c r="Q6" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="R6" s="118" t="s">
+        <v>8</v>
+      </c>
+      <c r="S6" s="119" t="s">
         <v>232</v>
       </c>
-      <c r="Q6" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="R6" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="S6" s="119" t="s">
+      <c r="T6" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="U6" s="116" t="s">
         <v>233</v>
       </c>
-      <c r="T6" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="U6" s="116" t="s">
+      <c r="V6" s="118" t="s">
         <v>234</v>
-      </c>
-      <c r="V6" s="118" t="s">
-        <v>235</v>
       </c>
       <c r="W6" s="120">
         <v>45321</v>
@@ -12442,20 +12415,20 @@
     </row>
     <row r="7" spans="1:27" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="114" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B7" s="2">
         <v>45321.104166666664</v>
       </c>
       <c r="C7" s="115" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D7" s="116" t="s">
         <v>35</v>
       </c>
       <c r="E7" s="117"/>
       <c r="F7" s="171" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="G7" s="118"/>
       <c r="H7" s="119">
@@ -12467,35 +12440,35 @@
         <v>147</v>
       </c>
       <c r="L7" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M7" s="116"/>
       <c r="N7" s="201">
         <v>600000</v>
       </c>
       <c r="O7" s="119" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P7" s="116" t="s">
         <v>70</v>
       </c>
       <c r="Q7" s="116" t="s">
+        <v>237</v>
+      </c>
+      <c r="R7" s="118" t="s">
         <v>238</v>
       </c>
-      <c r="R7" s="118" t="s">
+      <c r="S7" s="119" t="s">
         <v>239</v>
       </c>
-      <c r="S7" s="119" t="s">
+      <c r="T7" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="U7" s="116" t="s">
         <v>240</v>
       </c>
-      <c r="T7" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="U7" s="116" t="s">
+      <c r="V7" s="118" t="s">
         <v>241</v>
-      </c>
-      <c r="V7" s="118" t="s">
-        <v>242</v>
       </c>
       <c r="W7" s="120">
         <v>45387</v>
@@ -12511,20 +12484,20 @@
     </row>
     <row r="8" spans="1:27" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="114" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B8" s="2">
         <v>45324.277777777781</v>
       </c>
       <c r="C8" s="115" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D8" s="116" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="117"/>
       <c r="F8" s="171" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="G8" s="118"/>
       <c r="H8" s="119">
@@ -12536,14 +12509,14 @@
         <v>45</v>
       </c>
       <c r="L8" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M8" s="116"/>
       <c r="N8" s="201">
         <v>600000</v>
       </c>
       <c r="O8" s="119" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P8" s="116" t="s">
         <v>61</v>
@@ -12558,7 +12531,7 @@
         <v>217</v>
       </c>
       <c r="T8" s="116" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U8" s="116" t="s">
         <v>219</v>
@@ -12576,19 +12549,19 @@
         <v>9</v>
       </c>
       <c r="Z8" s="183" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AA8" s="199"/>
     </row>
     <row r="9" spans="1:27" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A9" s="114" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B9" s="2">
         <v>45344.569444444445</v>
       </c>
       <c r="C9" s="115" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D9" s="116" t="s">
         <v>2</v>
@@ -12597,7 +12570,7 @@
         <v>0.2</v>
       </c>
       <c r="F9" s="171" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="G9" s="118"/>
       <c r="H9" s="119">
@@ -12606,38 +12579,38 @@
       <c r="I9" s="119"/>
       <c r="J9" s="119"/>
       <c r="K9" s="116" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L9" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M9" s="116"/>
       <c r="N9" s="201">
         <v>1800000</v>
       </c>
       <c r="O9" s="119" t="s">
+        <v>248</v>
+      </c>
+      <c r="P9" s="116" t="s">
         <v>249</v>
       </c>
-      <c r="P9" s="116" t="s">
+      <c r="Q9" s="116" t="s">
         <v>250</v>
       </c>
-      <c r="Q9" s="116" t="s">
+      <c r="R9" s="118" t="s">
         <v>251</v>
       </c>
-      <c r="R9" s="118" t="s">
+      <c r="S9" s="119" t="s">
         <v>252</v>
-      </c>
-      <c r="S9" s="119" t="s">
-        <v>253</v>
       </c>
       <c r="T9" s="116">
         <v>2402063548</v>
       </c>
       <c r="U9" s="116" t="s">
+        <v>253</v>
+      </c>
+      <c r="V9" s="118" t="s">
         <v>254</v>
-      </c>
-      <c r="V9" s="118" t="s">
-        <v>255</v>
       </c>
       <c r="W9" s="120" t="s">
         <v>8</v>
@@ -12649,19 +12622,19 @@
         <v>9</v>
       </c>
       <c r="Z9" s="183" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AA9" s="199"/>
     </row>
     <row r="10" spans="1:27" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A10" s="114" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B10" s="2">
         <v>45357.006944444445</v>
       </c>
       <c r="C10" s="115" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D10" s="116" t="s">
         <v>18</v>
@@ -12677,32 +12650,32 @@
       <c r="I10" s="119"/>
       <c r="J10" s="119"/>
       <c r="K10" s="116" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L10" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M10" s="116"/>
       <c r="N10" s="201">
         <v>700000</v>
       </c>
       <c r="O10" s="119" t="s">
+        <v>258</v>
+      </c>
+      <c r="P10" s="116" t="s">
         <v>259</v>
       </c>
-      <c r="P10" s="116" t="s">
+      <c r="Q10" s="116" t="s">
         <v>260</v>
       </c>
-      <c r="Q10" s="116" t="s">
+      <c r="R10" s="118" t="s">
         <v>261</v>
-      </c>
-      <c r="R10" s="118" t="s">
-        <v>262</v>
       </c>
       <c r="S10" s="119" t="s">
         <v>206</v>
       </c>
       <c r="T10" s="116" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="U10" s="116" t="s">
         <v>208</v>
@@ -12724,13 +12697,13 @@
     </row>
     <row r="11" spans="1:27" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A11" s="114" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B11" s="2">
         <v>45358.010416666664</v>
       </c>
       <c r="C11" s="115" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D11" s="116" t="s">
         <v>35</v>
@@ -12744,32 +12717,32 @@
       <c r="I11" s="119"/>
       <c r="J11" s="119"/>
       <c r="K11" s="116" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L11" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M11" s="116"/>
       <c r="N11" s="201">
         <v>500000</v>
       </c>
       <c r="O11" s="119" t="s">
+        <v>265</v>
+      </c>
+      <c r="P11" s="116" t="s">
         <v>266</v>
       </c>
-      <c r="P11" s="116" t="s">
+      <c r="Q11" s="116" t="s">
         <v>267</v>
       </c>
-      <c r="Q11" s="116" t="s">
+      <c r="R11" s="118" t="s">
         <v>268</v>
-      </c>
-      <c r="R11" s="118" t="s">
-        <v>269</v>
       </c>
       <c r="S11" s="119" t="s">
         <v>217</v>
       </c>
       <c r="T11" s="116" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="U11" s="116" t="s">
         <v>219</v>
@@ -12791,13 +12764,13 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="114" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B12" s="2">
         <v>45361.170138888891</v>
       </c>
       <c r="C12" s="115" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D12" s="116" t="s">
         <v>2</v>
@@ -12814,29 +12787,29 @@
         <v>212</v>
       </c>
       <c r="L12" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M12" s="116"/>
       <c r="N12" s="201">
         <v>900000</v>
       </c>
       <c r="O12" s="119" t="s">
+        <v>271</v>
+      </c>
+      <c r="P12" s="116" t="s">
         <v>272</v>
       </c>
-      <c r="P12" s="116" t="s">
+      <c r="Q12" s="116" t="s">
         <v>273</v>
       </c>
-      <c r="Q12" s="116" t="s">
+      <c r="R12" s="118" t="s">
         <v>274</v>
-      </c>
-      <c r="R12" s="118" t="s">
-        <v>275</v>
       </c>
       <c r="S12" s="119" t="s">
         <v>206</v>
       </c>
       <c r="T12" s="116" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="U12" s="116" t="s">
         <v>208</v>
@@ -12858,13 +12831,13 @@
     </row>
     <row r="13" spans="1:27" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="114" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B13" s="2">
         <v>45365.824305555558</v>
       </c>
       <c r="C13" s="115" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D13" s="116" t="s">
         <v>35</v>
@@ -12881,20 +12854,20 @@
         <v>23</v>
       </c>
       <c r="L13" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M13" s="116"/>
       <c r="N13" s="201">
         <v>500000</v>
       </c>
       <c r="O13" s="119" t="s">
+        <v>277</v>
+      </c>
+      <c r="P13" s="116" t="s">
         <v>278</v>
       </c>
-      <c r="P13" s="116" t="s">
+      <c r="Q13" s="116" t="s">
         <v>279</v>
-      </c>
-      <c r="Q13" s="116" t="s">
-        <v>280</v>
       </c>
       <c r="R13" s="118" t="s">
         <v>8</v>
@@ -12903,7 +12876,7 @@
         <v>206</v>
       </c>
       <c r="T13" s="116" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="U13" s="116" t="s">
         <v>208</v>
@@ -12925,13 +12898,13 @@
     </row>
     <row r="14" spans="1:27" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A14" s="114" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B14" s="2">
         <v>45366.378472222219</v>
       </c>
       <c r="C14" s="115" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D14" s="116" t="s">
         <v>2</v>
@@ -12945,38 +12918,38 @@
       <c r="I14" s="119"/>
       <c r="J14" s="119"/>
       <c r="K14" s="116" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L14" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M14" s="116"/>
       <c r="N14" s="201">
         <v>700000</v>
       </c>
       <c r="O14" s="119" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P14" s="116" t="s">
         <v>194</v>
       </c>
       <c r="Q14" s="116" t="s">
+        <v>284</v>
+      </c>
+      <c r="R14" s="118" t="s">
         <v>285</v>
       </c>
-      <c r="R14" s="118" t="s">
-        <v>286</v>
-      </c>
       <c r="S14" s="119" t="s">
+        <v>252</v>
+      </c>
+      <c r="T14" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="116" t="s">
         <v>253</v>
       </c>
-      <c r="T14" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="U14" s="116" t="s">
+      <c r="V14" s="118" t="s">
         <v>254</v>
-      </c>
-      <c r="V14" s="118" t="s">
-        <v>255</v>
       </c>
       <c r="W14" s="120">
         <v>45376</v>
@@ -12992,13 +12965,13 @@
     </row>
     <row r="15" spans="1:27" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A15" s="114" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B15" s="2">
         <v>45739.493750000001</v>
       </c>
       <c r="C15" s="115" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D15" s="116" t="s">
         <v>35</v>
@@ -13012,32 +12985,32 @@
       <c r="I15" s="119"/>
       <c r="J15" s="119"/>
       <c r="K15" s="116" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L15" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M15" s="116"/>
       <c r="N15" s="201">
         <v>500000</v>
       </c>
       <c r="O15" s="119" t="s">
+        <v>288</v>
+      </c>
+      <c r="P15" s="116" t="s">
         <v>289</v>
       </c>
-      <c r="P15" s="116" t="s">
+      <c r="Q15" s="116" t="s">
         <v>290</v>
       </c>
-      <c r="Q15" s="116" t="s">
+      <c r="R15" s="118" t="s">
         <v>291</v>
-      </c>
-      <c r="R15" s="118" t="s">
-        <v>292</v>
       </c>
       <c r="S15" s="119" t="s">
         <v>217</v>
       </c>
       <c r="T15" s="116" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="U15" s="116" t="s">
         <v>219</v>
@@ -13059,13 +13032,13 @@
     </row>
     <row r="16" spans="1:27" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A16" s="114" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B16" s="2">
         <v>45395.656944444447</v>
       </c>
       <c r="C16" s="115" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D16" s="116" t="s">
         <v>2</v>
@@ -13079,32 +13052,32 @@
       <c r="I16" s="119"/>
       <c r="J16" s="119"/>
       <c r="K16" s="116" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L16" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M16" s="116"/>
       <c r="N16" s="201">
         <v>700000</v>
       </c>
       <c r="O16" s="119" t="s">
+        <v>295</v>
+      </c>
+      <c r="P16" s="116" t="s">
         <v>296</v>
       </c>
-      <c r="P16" s="116" t="s">
+      <c r="Q16" s="116" t="s">
         <v>297</v>
       </c>
-      <c r="Q16" s="116" t="s">
+      <c r="R16" s="118" t="s">
         <v>298</v>
-      </c>
-      <c r="R16" s="118" t="s">
-        <v>299</v>
       </c>
       <c r="S16" s="119" t="s">
         <v>217</v>
       </c>
       <c r="T16" s="116" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="U16" s="116" t="s">
         <v>219</v>
@@ -13126,13 +13099,13 @@
     </row>
     <row r="17" spans="1:27" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A17" s="114" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B17" s="2">
         <v>45401.590277777781</v>
       </c>
       <c r="C17" s="115" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D17" s="116" t="s">
         <v>35</v>
@@ -13149,23 +13122,23 @@
         <v>45</v>
       </c>
       <c r="L17" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M17" s="116"/>
       <c r="N17" s="201">
         <v>500000</v>
       </c>
       <c r="O17" s="119" t="s">
+        <v>301</v>
+      </c>
+      <c r="P17" s="116" t="s">
         <v>302</v>
       </c>
-      <c r="P17" s="116" t="s">
+      <c r="Q17" s="116" t="s">
         <v>303</v>
       </c>
-      <c r="Q17" s="116" t="s">
+      <c r="R17" s="118" t="s">
         <v>304</v>
-      </c>
-      <c r="R17" s="118" t="s">
-        <v>305</v>
       </c>
       <c r="S17" s="119" t="s">
         <v>206</v>
@@ -13193,13 +13166,13 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="114" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B18" s="2">
         <v>45416.850694444445</v>
       </c>
       <c r="C18" s="115" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D18" s="116" t="s">
         <v>18</v>
@@ -13213,26 +13186,26 @@
       <c r="I18" s="119"/>
       <c r="J18" s="119"/>
       <c r="K18" s="116" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L18" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M18" s="116"/>
       <c r="N18" s="201">
         <v>700000</v>
       </c>
       <c r="O18" s="119" t="s">
+        <v>307</v>
+      </c>
+      <c r="P18" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="P18" s="116" t="s">
+      <c r="Q18" s="116" t="s">
         <v>309</v>
       </c>
-      <c r="Q18" s="116" t="s">
+      <c r="R18" s="118" t="s">
         <v>310</v>
-      </c>
-      <c r="R18" s="118" t="s">
-        <v>311</v>
       </c>
       <c r="S18" s="119" t="s">
         <v>206</v>
@@ -13260,13 +13233,13 @@
     </row>
     <row r="19" spans="1:27" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A19" s="114" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B19" s="2">
         <v>45425.354166666664</v>
       </c>
       <c r="C19" s="115" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D19" s="116" t="s">
         <v>35</v>
@@ -13280,38 +13253,38 @@
       <c r="I19" s="119"/>
       <c r="J19" s="119"/>
       <c r="K19" s="116" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L19" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M19" s="116"/>
       <c r="N19" s="201">
         <v>300000</v>
       </c>
       <c r="O19" s="119" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P19" s="116" t="s">
         <v>14</v>
       </c>
       <c r="Q19" s="116" t="s">
+        <v>314</v>
+      </c>
+      <c r="R19" s="118" t="s">
         <v>315</v>
       </c>
-      <c r="R19" s="118" t="s">
+      <c r="S19" s="119" t="s">
         <v>316</v>
-      </c>
-      <c r="S19" s="119" t="s">
-        <v>317</v>
       </c>
       <c r="T19" s="116">
         <v>3710584</v>
       </c>
       <c r="U19" s="116" t="s">
+        <v>317</v>
+      </c>
+      <c r="V19" s="118" t="s">
         <v>318</v>
-      </c>
-      <c r="V19" s="118" t="s">
-        <v>319</v>
       </c>
       <c r="W19" s="120">
         <v>45436</v>
@@ -13327,13 +13300,13 @@
     </row>
     <row r="20" spans="1:27" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A20" s="114" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B20" s="2">
         <v>45433.461805555555</v>
       </c>
       <c r="C20" s="115" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D20" s="116" t="s">
         <v>2</v>
@@ -13352,29 +13325,29 @@
         <v>43</v>
       </c>
       <c r="L20" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M20" s="116"/>
       <c r="N20" s="201">
         <v>1000000</v>
       </c>
       <c r="O20" s="119" t="s">
+        <v>320</v>
+      </c>
+      <c r="P20" s="116" t="s">
         <v>321</v>
       </c>
-      <c r="P20" s="116" t="s">
+      <c r="Q20" s="116" t="s">
         <v>322</v>
       </c>
-      <c r="Q20" s="116" t="s">
+      <c r="R20" s="118" t="s">
         <v>323</v>
-      </c>
-      <c r="R20" s="118" t="s">
-        <v>324</v>
       </c>
       <c r="S20" s="119" t="s">
         <v>217</v>
       </c>
       <c r="T20" s="116" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U20" s="116" t="s">
         <v>219</v>
@@ -13392,19 +13365,19 @@
         <v>15</v>
       </c>
       <c r="Z20" s="183" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AA20" s="199"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="114" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B21" s="2">
         <v>45435.232638888891</v>
       </c>
       <c r="C21" s="115" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D21" s="116" t="s">
         <v>2</v>
@@ -13421,26 +13394,26 @@
         <v>20</v>
       </c>
       <c r="L21" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M21" s="116"/>
       <c r="N21" s="201">
         <v>200000</v>
       </c>
       <c r="O21" s="119" t="s">
+        <v>327</v>
+      </c>
+      <c r="P21" s="116" t="s">
         <v>328</v>
       </c>
-      <c r="P21" s="116" t="s">
+      <c r="Q21" s="116" t="s">
         <v>329</v>
       </c>
-      <c r="Q21" s="116" t="s">
+      <c r="R21" s="118" t="s">
         <v>330</v>
       </c>
-      <c r="R21" s="118" t="s">
-        <v>331</v>
-      </c>
       <c r="S21" s="119" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T21" s="116" t="s">
         <v>8</v>
@@ -13461,19 +13434,19 @@
         <v>15</v>
       </c>
       <c r="Z21" s="183" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AA21" s="199"/>
     </row>
     <row r="22" spans="1:27" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A22" s="114" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B22" s="2">
         <v>45440.861111111109</v>
       </c>
       <c r="C22" s="115" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D22" s="116" t="s">
         <v>136</v>
@@ -13487,38 +13460,38 @@
       <c r="I22" s="119"/>
       <c r="J22" s="119"/>
       <c r="K22" s="116" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L22" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M22" s="116"/>
       <c r="N22" s="201">
         <v>400000</v>
       </c>
       <c r="O22" s="119" t="s">
+        <v>333</v>
+      </c>
+      <c r="P22" s="116" t="s">
         <v>334</v>
       </c>
-      <c r="P22" s="116" t="s">
+      <c r="Q22" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="118" t="s">
         <v>335</v>
       </c>
-      <c r="Q22" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="R22" s="118" t="s">
+      <c r="S22" s="119" t="s">
         <v>336</v>
-      </c>
-      <c r="S22" s="119" t="s">
-        <v>337</v>
       </c>
       <c r="T22" s="116">
         <v>73215</v>
       </c>
       <c r="U22" s="116" t="s">
+        <v>337</v>
+      </c>
+      <c r="V22" s="118" t="s">
         <v>338</v>
-      </c>
-      <c r="V22" s="118" t="s">
-        <v>339</v>
       </c>
       <c r="W22" s="120">
         <v>45443</v>
@@ -13534,13 +13507,13 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="114" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B23" s="2">
         <v>45450.336805555555</v>
       </c>
       <c r="C23" s="115" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D23" s="116" t="s">
         <v>139</v>
@@ -13557,35 +13530,35 @@
         <v>126</v>
       </c>
       <c r="L23" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M23" s="116"/>
       <c r="N23" s="201">
         <v>2000000</v>
       </c>
       <c r="O23" s="119" t="s">
+        <v>340</v>
+      </c>
+      <c r="P23" s="116" t="s">
         <v>341</v>
       </c>
-      <c r="P23" s="116" t="s">
+      <c r="Q23" s="116" t="s">
         <v>342</v>
       </c>
-      <c r="Q23" s="116" t="s">
+      <c r="R23" s="118" t="s">
         <v>343</v>
       </c>
-      <c r="R23" s="118" t="s">
+      <c r="S23" s="119" t="s">
         <v>344</v>
       </c>
-      <c r="S23" s="119" t="s">
+      <c r="T23" s="116" t="s">
         <v>345</v>
       </c>
-      <c r="T23" s="116" t="s">
+      <c r="U23" s="116" t="s">
         <v>346</v>
       </c>
-      <c r="U23" s="116" t="s">
+      <c r="V23" s="118" t="s">
         <v>347</v>
-      </c>
-      <c r="V23" s="118" t="s">
-        <v>348</v>
       </c>
       <c r="W23" s="120">
         <v>45454</v>
@@ -13601,20 +13574,20 @@
     </row>
     <row r="24" spans="1:27" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A24" s="114" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B24" s="2">
         <v>45469.875</v>
       </c>
       <c r="C24" s="115" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D24" s="116" t="s">
         <v>136</v>
       </c>
       <c r="E24" s="117"/>
       <c r="F24" s="171" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="G24" s="118"/>
       <c r="H24" s="119">
@@ -13623,32 +13596,32 @@
       <c r="I24" s="119"/>
       <c r="J24" s="119"/>
       <c r="K24" s="116" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L24" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M24" s="116"/>
       <c r="N24" s="201">
         <v>700000</v>
       </c>
       <c r="O24" s="119" t="s">
+        <v>349</v>
+      </c>
+      <c r="P24" s="116" t="s">
         <v>350</v>
       </c>
-      <c r="P24" s="116" t="s">
+      <c r="Q24" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="R24" s="118" t="s">
         <v>351</v>
-      </c>
-      <c r="Q24" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="R24" s="118" t="s">
-        <v>352</v>
       </c>
       <c r="S24" s="119" t="s">
         <v>217</v>
       </c>
       <c r="T24" s="116" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="U24" s="116" t="s">
         <v>219</v>
@@ -13670,13 +13643,13 @@
     </row>
     <row r="25" spans="1:27" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A25" s="114" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B25" s="2">
         <v>45470.277777777781</v>
       </c>
       <c r="C25" s="115" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D25" s="116" t="s">
         <v>2</v>
@@ -13693,35 +13666,35 @@
         <v>48</v>
       </c>
       <c r="L25" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M25" s="116"/>
       <c r="N25" s="201">
         <v>800000</v>
       </c>
       <c r="O25" s="119" t="s">
+        <v>354</v>
+      </c>
+      <c r="P25" s="116" t="s">
         <v>355</v>
       </c>
-      <c r="P25" s="116" t="s">
+      <c r="Q25" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="R25" s="118" t="s">
         <v>356</v>
       </c>
-      <c r="Q25" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="R25" s="118" t="s">
-        <v>357</v>
-      </c>
       <c r="S25" s="119" t="s">
+        <v>252</v>
+      </c>
+      <c r="T25" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="U25" s="116" t="s">
         <v>253</v>
       </c>
-      <c r="T25" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="U25" s="116" t="s">
+      <c r="V25" s="118" t="s">
         <v>254</v>
-      </c>
-      <c r="V25" s="118" t="s">
-        <v>255</v>
       </c>
       <c r="W25" s="120">
         <v>45471</v>
@@ -13737,20 +13710,20 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="114" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B26" s="2">
         <v>45477.972222222219</v>
       </c>
       <c r="C26" s="115" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D26" s="116" t="s">
         <v>139</v>
       </c>
       <c r="E26" s="117"/>
       <c r="F26" s="171" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="G26" s="118"/>
       <c r="H26" s="119">
@@ -13762,14 +13735,14 @@
         <v>118</v>
       </c>
       <c r="L26" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M26" s="116"/>
       <c r="N26" s="201">
         <v>700000</v>
       </c>
       <c r="O26" s="119" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P26" s="119" t="s">
         <v>8</v>
@@ -13802,19 +13775,19 @@
         <v>9</v>
       </c>
       <c r="Z26" s="183" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AA26" s="199"/>
     </row>
     <row r="27" spans="1:27" ht="24" x14ac:dyDescent="0.3">
       <c r="A27" s="114" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B27" s="2">
         <v>45478.529861111114</v>
       </c>
       <c r="C27" s="115" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D27" s="116" t="s">
         <v>18</v>
@@ -13828,44 +13801,44 @@
       <c r="I27" s="119"/>
       <c r="J27" s="119"/>
       <c r="K27" s="116" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L27" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M27" s="116"/>
       <c r="N27" s="201">
         <v>600000</v>
       </c>
       <c r="O27" s="119" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P27" s="116" t="s">
         <v>93</v>
       </c>
       <c r="Q27" s="116" t="s">
+        <v>363</v>
+      </c>
+      <c r="R27" s="118" t="s">
         <v>364</v>
       </c>
-      <c r="R27" s="118" t="s">
+      <c r="S27" s="119" t="s">
         <v>365</v>
-      </c>
-      <c r="S27" s="119" t="s">
-        <v>366</v>
       </c>
       <c r="T27" s="116">
         <v>2559401</v>
       </c>
       <c r="U27" s="116" t="s">
+        <v>366</v>
+      </c>
+      <c r="V27" s="118" t="s">
         <v>367</v>
-      </c>
-      <c r="V27" s="118" t="s">
-        <v>368</v>
       </c>
       <c r="W27" s="120">
         <v>45484</v>
       </c>
       <c r="X27" s="121" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Y27" s="46" t="s">
         <v>15</v>
@@ -13875,20 +13848,20 @@
     </row>
     <row r="28" spans="1:27" ht="24" x14ac:dyDescent="0.3">
       <c r="A28" s="114" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B28" s="2">
         <v>45481.375</v>
       </c>
       <c r="C28" s="115" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D28" s="116" t="s">
         <v>35</v>
       </c>
       <c r="E28" s="117"/>
       <c r="F28" s="171" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="G28" s="118"/>
       <c r="H28" s="119">
@@ -13900,35 +13873,35 @@
         <v>63</v>
       </c>
       <c r="L28" s="116" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="M28" s="116"/>
       <c r="N28" s="201">
         <v>3500000</v>
       </c>
       <c r="O28" s="119" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P28" s="116" t="s">
         <v>105</v>
       </c>
       <c r="Q28" s="116" t="s">
+        <v>371</v>
+      </c>
+      <c r="R28" s="118" t="s">
         <v>372</v>
       </c>
-      <c r="R28" s="118" t="s">
+      <c r="S28" s="119" t="s">
         <v>373</v>
       </c>
-      <c r="S28" s="119" t="s">
+      <c r="T28" s="116" t="s">
         <v>374</v>
       </c>
-      <c r="T28" s="116" t="s">
+      <c r="U28" s="116" t="s">
         <v>375</v>
       </c>
-      <c r="U28" s="116" t="s">
+      <c r="V28" s="118" t="s">
         <v>376</v>
-      </c>
-      <c r="V28" s="118" t="s">
-        <v>377</v>
       </c>
       <c r="W28" s="120">
         <v>45497</v>
@@ -13944,13 +13917,13 @@
     </row>
     <row r="29" spans="1:27" ht="24" x14ac:dyDescent="0.3">
       <c r="A29" s="114" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B29" s="2">
         <v>45498.194444444445</v>
       </c>
       <c r="C29" s="115" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D29" s="116" t="s">
         <v>18</v>
@@ -13966,44 +13939,44 @@
       <c r="I29" s="119"/>
       <c r="J29" s="119"/>
       <c r="K29" s="116" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L29" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M29" s="116"/>
       <c r="N29" s="201">
         <v>700000</v>
       </c>
       <c r="O29" s="119" t="s">
+        <v>378</v>
+      </c>
+      <c r="P29" s="116" t="s">
         <v>379</v>
       </c>
-      <c r="P29" s="116" t="s">
+      <c r="Q29" s="116" t="s">
         <v>380</v>
       </c>
-      <c r="Q29" s="116" t="s">
+      <c r="R29" s="118" t="s">
         <v>381</v>
       </c>
-      <c r="R29" s="118" t="s">
-        <v>382</v>
-      </c>
       <c r="S29" s="119" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="T29" s="116">
         <v>57088200</v>
       </c>
       <c r="U29" s="116" t="s">
+        <v>382</v>
+      </c>
+      <c r="V29" s="118" t="s">
         <v>383</v>
-      </c>
-      <c r="V29" s="118" t="s">
-        <v>384</v>
       </c>
       <c r="W29" s="120">
         <v>45559</v>
       </c>
       <c r="X29" s="121" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Y29" s="46" t="s">
         <v>15</v>
@@ -14013,13 +13986,13 @@
     </row>
     <row r="30" spans="1:27" ht="24" x14ac:dyDescent="0.3">
       <c r="A30" s="114" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B30" s="2">
         <v>45499.295138888891</v>
       </c>
       <c r="C30" s="115" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D30" s="116" t="s">
         <v>136</v>
@@ -14038,35 +14011,35 @@
         <v>72</v>
       </c>
       <c r="L30" s="116" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="M30" s="116"/>
       <c r="N30" s="201">
         <v>6500000</v>
       </c>
       <c r="O30" s="119" t="s">
+        <v>386</v>
+      </c>
+      <c r="P30" s="116" t="s">
         <v>387</v>
       </c>
-      <c r="P30" s="116" t="s">
+      <c r="Q30" s="116" t="s">
         <v>388</v>
       </c>
-      <c r="Q30" s="116" t="s">
-        <v>389</v>
-      </c>
       <c r="R30" s="118" t="s">
         <v>8</v>
       </c>
       <c r="S30" s="119" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="T30" s="116">
         <v>82131</v>
       </c>
       <c r="U30" s="116" t="s">
+        <v>389</v>
+      </c>
+      <c r="V30" s="118" t="s">
         <v>390</v>
-      </c>
-      <c r="V30" s="118" t="s">
-        <v>391</v>
       </c>
       <c r="W30" s="120">
         <v>45541</v>
@@ -14078,19 +14051,19 @@
         <v>15</v>
       </c>
       <c r="Z30" s="183" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AA30" s="199"/>
     </row>
     <row r="31" spans="1:27" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A31" s="114" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B31" s="2">
         <v>45535.583333333336</v>
       </c>
       <c r="C31" s="115" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D31" s="116" t="s">
         <v>97</v>
@@ -14099,7 +14072,7 @@
         <v>0.1</v>
       </c>
       <c r="F31" s="171" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="G31" s="118"/>
       <c r="H31" s="119">
@@ -14111,35 +14084,35 @@
         <v>43</v>
       </c>
       <c r="L31" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M31" s="116"/>
       <c r="N31" s="201">
         <v>1000000</v>
       </c>
       <c r="O31" s="119" t="s">
+        <v>393</v>
+      </c>
+      <c r="P31" s="116" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q31" s="116" t="s">
         <v>394</v>
       </c>
-      <c r="P31" s="116" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q31" s="116" t="s">
+      <c r="R31" s="118" t="s">
         <v>395</v>
       </c>
-      <c r="R31" s="118" t="s">
-        <v>396</v>
-      </c>
       <c r="S31" s="119" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="T31" s="116">
         <v>2408103489</v>
       </c>
       <c r="U31" s="116" t="s">
+        <v>253</v>
+      </c>
+      <c r="V31" s="118" t="s">
         <v>254</v>
-      </c>
-      <c r="V31" s="118" t="s">
-        <v>255</v>
       </c>
       <c r="W31" s="120" t="s">
         <v>8</v>
@@ -14157,13 +14130,13 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="114" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B32" s="2">
         <v>45547.923611111109</v>
       </c>
       <c r="C32" s="115" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D32" s="116" t="s">
         <v>18</v>
@@ -14182,35 +14155,35 @@
         <v>96</v>
       </c>
       <c r="L32" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M32" s="116"/>
       <c r="N32" s="201">
         <v>600000</v>
       </c>
       <c r="O32" s="119" t="s">
+        <v>397</v>
+      </c>
+      <c r="P32" s="116" t="s">
         <v>398</v>
       </c>
-      <c r="P32" s="116" t="s">
+      <c r="Q32" s="116" t="s">
         <v>399</v>
       </c>
-      <c r="Q32" s="116" t="s">
+      <c r="R32" s="118" t="s">
         <v>400</v>
       </c>
-      <c r="R32" s="118" t="s">
+      <c r="S32" s="119" t="s">
         <v>401</v>
       </c>
-      <c r="S32" s="119" t="s">
+      <c r="T32" s="122" t="s">
         <v>402</v>
       </c>
-      <c r="T32" s="122" t="s">
+      <c r="U32" s="116" t="s">
         <v>403</v>
       </c>
-      <c r="U32" s="116" t="s">
+      <c r="V32" s="118" t="s">
         <v>404</v>
-      </c>
-      <c r="V32" s="118" t="s">
-        <v>405</v>
       </c>
       <c r="W32" s="120">
         <v>45559</v>
@@ -14226,13 +14199,13 @@
     </row>
     <row r="33" spans="1:27" ht="24" x14ac:dyDescent="0.3">
       <c r="A33" s="114" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B33" s="2">
         <v>45548.509027777778</v>
       </c>
       <c r="C33" s="115" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D33" s="116" t="s">
         <v>2</v>
@@ -14241,7 +14214,7 @@
         <v>0.2</v>
       </c>
       <c r="F33" s="171" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="G33" s="118"/>
       <c r="H33" s="119">
@@ -14253,17 +14226,17 @@
         <v>30</v>
       </c>
       <c r="L33" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M33" s="116"/>
       <c r="N33" s="201">
         <v>500000</v>
       </c>
       <c r="O33" s="119" t="s">
+        <v>406</v>
+      </c>
+      <c r="P33" s="116" t="s">
         <v>407</v>
-      </c>
-      <c r="P33" s="116" t="s">
-        <v>408</v>
       </c>
       <c r="Q33" s="116" t="s">
         <v>8</v>
@@ -14275,13 +14248,13 @@
         <v>206</v>
       </c>
       <c r="T33" s="116" t="s">
+        <v>408</v>
+      </c>
+      <c r="U33" s="116" t="s">
         <v>409</v>
       </c>
-      <c r="U33" s="116" t="s">
+      <c r="V33" s="118" t="s">
         <v>410</v>
-      </c>
-      <c r="V33" s="118" t="s">
-        <v>411</v>
       </c>
       <c r="W33" s="120" t="s">
         <v>8</v>
@@ -14299,13 +14272,13 @@
     </row>
     <row r="34" spans="1:27" ht="24" x14ac:dyDescent="0.3">
       <c r="A34" s="114" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B34" s="2">
         <v>45570.638888888891</v>
       </c>
       <c r="C34" s="115" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D34" s="116" t="s">
         <v>18</v>
@@ -14324,35 +14297,35 @@
         <v>20</v>
       </c>
       <c r="L34" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M34" s="116"/>
       <c r="N34" s="201">
         <v>150000</v>
       </c>
       <c r="O34" s="119" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="P34" s="116" t="s">
         <v>87</v>
       </c>
       <c r="Q34" s="116" t="s">
+        <v>413</v>
+      </c>
+      <c r="R34" s="118" t="s">
         <v>414</v>
       </c>
-      <c r="R34" s="118" t="s">
+      <c r="S34" s="119" t="s">
         <v>415</v>
-      </c>
-      <c r="S34" s="119" t="s">
-        <v>416</v>
       </c>
       <c r="T34" s="116">
         <v>202429841</v>
       </c>
       <c r="U34" s="116" t="s">
+        <v>416</v>
+      </c>
+      <c r="V34" s="118" t="s">
         <v>417</v>
-      </c>
-      <c r="V34" s="118" t="s">
-        <v>418</v>
       </c>
       <c r="W34" s="120" t="s">
         <v>8</v>
@@ -14370,13 +14343,13 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="114" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B35" s="2">
         <v>45573.784722222219</v>
       </c>
       <c r="C35" s="115" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D35" s="116" t="s">
         <v>18</v>
@@ -14385,7 +14358,7 @@
         <v>0.3</v>
       </c>
       <c r="F35" s="171" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="G35" s="118"/>
       <c r="H35" s="119">
@@ -14397,14 +14370,14 @@
         <v>123</v>
       </c>
       <c r="L35" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M35" s="116"/>
       <c r="N35" s="201">
         <v>900000</v>
       </c>
       <c r="O35" s="119" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P35" s="116" t="s">
         <v>87</v>
@@ -14416,16 +14389,16 @@
         <v>8</v>
       </c>
       <c r="S35" s="119" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="T35" s="116">
         <v>8088359</v>
       </c>
       <c r="U35" s="116" t="s">
+        <v>420</v>
+      </c>
+      <c r="V35" s="118" t="s">
         <v>421</v>
-      </c>
-      <c r="V35" s="118" t="s">
-        <v>422</v>
       </c>
       <c r="W35" s="120" t="s">
         <v>8</v>
@@ -14443,13 +14416,13 @@
     </row>
     <row r="36" spans="1:27" ht="24" x14ac:dyDescent="0.3">
       <c r="A36" s="114" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B36" s="2">
         <v>45581.03125</v>
       </c>
       <c r="C36" s="115" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D36" s="116" t="s">
         <v>18</v>
@@ -14463,26 +14436,26 @@
       <c r="I36" s="119"/>
       <c r="J36" s="119"/>
       <c r="K36" s="116" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L36" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M36" s="116"/>
       <c r="N36" s="201">
         <v>300000</v>
       </c>
       <c r="O36" s="119" t="s">
+        <v>423</v>
+      </c>
+      <c r="P36" s="116" t="s">
         <v>424</v>
       </c>
-      <c r="P36" s="116" t="s">
+      <c r="Q36" s="116" t="s">
         <v>425</v>
       </c>
-      <c r="Q36" s="116" t="s">
+      <c r="R36" s="118" t="s">
         <v>426</v>
-      </c>
-      <c r="R36" s="118" t="s">
-        <v>427</v>
       </c>
       <c r="S36" s="119" t="s">
         <v>197</v>
@@ -14491,10 +14464,10 @@
         <v>224076349</v>
       </c>
       <c r="U36" s="116" t="s">
+        <v>427</v>
+      </c>
+      <c r="V36" s="118" t="s">
         <v>428</v>
-      </c>
-      <c r="V36" s="118" t="s">
-        <v>429</v>
       </c>
       <c r="W36" s="120" t="s">
         <v>8</v>
@@ -14512,13 +14485,13 @@
     </row>
     <row r="37" spans="1:27" ht="24" x14ac:dyDescent="0.3">
       <c r="A37" s="114" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B37" s="2">
         <v>45586.503472222219</v>
       </c>
       <c r="C37" s="115" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D37" s="116" t="s">
         <v>18</v>
@@ -14535,35 +14508,35 @@
         <v>113</v>
       </c>
       <c r="L37" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M37" s="116"/>
       <c r="N37" s="201">
         <v>2500000</v>
       </c>
       <c r="O37" s="119" t="s">
+        <v>429</v>
+      </c>
+      <c r="P37" s="116" t="s">
         <v>430</v>
       </c>
-      <c r="P37" s="116" t="s">
+      <c r="Q37" s="116" t="s">
         <v>431</v>
       </c>
-      <c r="Q37" s="116" t="s">
+      <c r="R37" s="118" t="s">
         <v>432</v>
       </c>
-      <c r="R37" s="118" t="s">
-        <v>433</v>
-      </c>
       <c r="S37" s="119" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T37" s="116">
         <v>20201</v>
       </c>
       <c r="U37" s="116" t="s">
+        <v>433</v>
+      </c>
+      <c r="V37" s="118" t="s">
         <v>434</v>
-      </c>
-      <c r="V37" s="118" t="s">
-        <v>435</v>
       </c>
       <c r="W37" s="120" t="s">
         <v>8</v>
@@ -14581,13 +14554,13 @@
     </row>
     <row r="38" spans="1:27" ht="24" x14ac:dyDescent="0.3">
       <c r="A38" s="114" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B38" s="2">
         <v>45600.513888888891</v>
       </c>
       <c r="C38" s="115" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D38" s="116" t="s">
         <v>2</v>
@@ -14601,38 +14574,38 @@
       <c r="I38" s="119"/>
       <c r="J38" s="119"/>
       <c r="K38" s="116" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L38" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M38" s="116"/>
       <c r="N38" s="201">
         <v>600000</v>
       </c>
       <c r="O38" s="119" t="s">
+        <v>437</v>
+      </c>
+      <c r="P38" s="116" t="s">
         <v>438</v>
       </c>
-      <c r="P38" s="116" t="s">
+      <c r="Q38" s="116" t="s">
         <v>439</v>
       </c>
-      <c r="Q38" s="116" t="s">
+      <c r="R38" s="118" t="s">
         <v>440</v>
-      </c>
-      <c r="R38" s="118" t="s">
-        <v>441</v>
       </c>
       <c r="S38" s="119" t="s">
         <v>206</v>
       </c>
       <c r="T38" s="116" t="s">
+        <v>441</v>
+      </c>
+      <c r="U38" s="116" t="s">
         <v>442</v>
       </c>
-      <c r="U38" s="116" t="s">
+      <c r="V38" s="118" t="s">
         <v>443</v>
-      </c>
-      <c r="V38" s="118" t="s">
-        <v>444</v>
       </c>
       <c r="W38" s="120" t="s">
         <v>8</v>
@@ -14650,13 +14623,13 @@
     </row>
     <row r="39" spans="1:27" ht="24" x14ac:dyDescent="0.3">
       <c r="A39" s="114" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B39" s="2">
         <v>45608.996527777781</v>
       </c>
       <c r="C39" s="115" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D39" s="116" t="s">
         <v>18</v>
@@ -14670,17 +14643,17 @@
       <c r="I39" s="119"/>
       <c r="J39" s="119"/>
       <c r="K39" s="116" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L39" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M39" s="116"/>
       <c r="N39" s="201">
         <v>1000000</v>
       </c>
       <c r="O39" s="119" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P39" s="116" t="s">
         <v>14</v>
@@ -14692,16 +14665,16 @@
         <v>8</v>
       </c>
       <c r="S39" s="119" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T39" s="116">
         <v>21874</v>
       </c>
       <c r="U39" s="116" t="s">
+        <v>433</v>
+      </c>
+      <c r="V39" s="118" t="s">
         <v>434</v>
-      </c>
-      <c r="V39" s="118" t="s">
-        <v>435</v>
       </c>
       <c r="W39" s="120" t="s">
         <v>8</v>
@@ -14719,13 +14692,13 @@
     </row>
     <row r="40" spans="1:27" ht="24" x14ac:dyDescent="0.3">
       <c r="A40" s="114" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B40" s="2">
         <v>45612.170138888891</v>
       </c>
       <c r="C40" s="115" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D40" s="116" t="s">
         <v>18</v>
@@ -14739,29 +14712,29 @@
       <c r="I40" s="119"/>
       <c r="J40" s="119"/>
       <c r="K40" s="116" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L40" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M40" s="116"/>
       <c r="N40" s="202">
         <v>0</v>
       </c>
       <c r="O40" s="119" t="s">
+        <v>447</v>
+      </c>
+      <c r="P40" s="116" t="s">
         <v>448</v>
       </c>
-      <c r="P40" s="116" t="s">
+      <c r="Q40" s="116" t="s">
         <v>449</v>
       </c>
-      <c r="Q40" s="116" t="s">
+      <c r="R40" s="118" t="s">
         <v>450</v>
       </c>
-      <c r="R40" s="118" t="s">
+      <c r="S40" s="119" t="s">
         <v>451</v>
-      </c>
-      <c r="S40" s="119" t="s">
-        <v>452</v>
       </c>
       <c r="T40" s="116" t="s">
         <v>8</v>
@@ -14786,13 +14759,13 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="114" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B41" s="2">
         <v>45616.861111111109</v>
       </c>
       <c r="C41" s="115" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D41" s="116" t="s">
         <v>124</v>
@@ -14809,20 +14782,20 @@
         <v>118</v>
       </c>
       <c r="L41" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M41" s="116"/>
       <c r="N41" s="201">
         <v>300000</v>
       </c>
       <c r="O41" s="119" t="s">
+        <v>453</v>
+      </c>
+      <c r="P41" s="116" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q41" s="116" t="s">
         <v>454</v>
-      </c>
-      <c r="P41" s="116" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q41" s="116" t="s">
-        <v>455</v>
       </c>
       <c r="R41" s="118" t="s">
         <v>8</v>
@@ -14834,10 +14807,10 @@
         <v>4459</v>
       </c>
       <c r="U41" s="116" t="s">
+        <v>455</v>
+      </c>
+      <c r="V41" s="118" t="s">
         <v>456</v>
-      </c>
-      <c r="V41" s="118" t="s">
-        <v>457</v>
       </c>
       <c r="W41" s="120" t="s">
         <v>8</v>
@@ -14855,13 +14828,13 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="114" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B42" s="2">
         <v>45617.303472222222</v>
       </c>
       <c r="C42" s="115" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D42" s="116" t="s">
         <v>18</v>
@@ -14878,23 +14851,23 @@
         <v>149</v>
       </c>
       <c r="L42" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M42" s="116"/>
       <c r="N42" s="201">
         <v>400000</v>
       </c>
       <c r="O42" s="119" t="s">
+        <v>458</v>
+      </c>
+      <c r="P42" s="116" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q42" s="116" t="s">
         <v>459</v>
       </c>
-      <c r="P42" s="116" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q42" s="116" t="s">
+      <c r="R42" s="118" t="s">
         <v>460</v>
-      </c>
-      <c r="R42" s="118" t="s">
-        <v>461</v>
       </c>
       <c r="S42" s="119" t="s">
         <v>217</v>
@@ -14903,10 +14876,10 @@
         <v>8</v>
       </c>
       <c r="U42" s="116" t="s">
+        <v>455</v>
+      </c>
+      <c r="V42" s="118" t="s">
         <v>456</v>
-      </c>
-      <c r="V42" s="118" t="s">
-        <v>457</v>
       </c>
       <c r="W42" s="120" t="s">
         <v>8</v>
@@ -14924,13 +14897,13 @@
     </row>
     <row r="43" spans="1:27" ht="24" x14ac:dyDescent="0.3">
       <c r="A43" s="114" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B43" s="2">
         <v>45626.395833333336</v>
       </c>
       <c r="C43" s="115" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D43" s="116" t="s">
         <v>35</v>
@@ -14944,38 +14917,38 @@
       <c r="I43" s="119"/>
       <c r="J43" s="119"/>
       <c r="K43" s="116" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L43" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M43" s="116"/>
       <c r="N43" s="201">
         <v>500000</v>
       </c>
       <c r="O43" s="119" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="P43" s="116" t="s">
         <v>87</v>
       </c>
       <c r="Q43" s="116" t="s">
+        <v>463</v>
+      </c>
+      <c r="R43" s="118" t="s">
         <v>464</v>
       </c>
-      <c r="R43" s="118" t="s">
-        <v>465</v>
-      </c>
       <c r="S43" s="119" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="T43" s="116">
         <v>35821</v>
       </c>
       <c r="U43" s="116" t="s">
+        <v>416</v>
+      </c>
+      <c r="V43" s="118" t="s">
         <v>417</v>
-      </c>
-      <c r="V43" s="118" t="s">
-        <v>418</v>
       </c>
       <c r="W43" s="120" t="s">
         <v>8</v>
@@ -14993,13 +14966,13 @@
     </row>
     <row r="44" spans="1:27" ht="24" x14ac:dyDescent="0.3">
       <c r="A44" s="114" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B44" s="2">
         <v>45628.309027777781</v>
       </c>
       <c r="C44" s="115" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D44" s="116" t="s">
         <v>139</v>
@@ -15013,38 +14986,38 @@
       <c r="I44" s="119"/>
       <c r="J44" s="119"/>
       <c r="K44" s="116" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L44" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M44" s="116"/>
       <c r="N44" s="201">
         <v>800000</v>
       </c>
       <c r="O44" s="119" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P44" s="116" t="s">
         <v>70</v>
       </c>
       <c r="Q44" s="116" t="s">
+        <v>467</v>
+      </c>
+      <c r="R44" s="118" t="s">
         <v>468</v>
       </c>
-      <c r="R44" s="118" t="s">
-        <v>469</v>
-      </c>
       <c r="S44" s="119" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="T44" s="116">
         <v>36045</v>
       </c>
       <c r="U44" s="116" t="s">
+        <v>416</v>
+      </c>
+      <c r="V44" s="118" t="s">
         <v>417</v>
-      </c>
-      <c r="V44" s="118" t="s">
-        <v>418</v>
       </c>
       <c r="W44" s="120" t="s">
         <v>8</v>
@@ -15062,13 +15035,13 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="114" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B45" s="2">
         <v>45644.364583333336</v>
       </c>
       <c r="C45" s="115" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D45" s="116" t="s">
         <v>18</v>
@@ -15085,35 +15058,35 @@
         <v>30</v>
       </c>
       <c r="L45" s="116" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M45" s="116"/>
       <c r="N45" s="201">
         <v>800000</v>
       </c>
       <c r="O45" s="119" t="s">
+        <v>470</v>
+      </c>
+      <c r="P45" s="116" t="s">
         <v>471</v>
       </c>
-      <c r="P45" s="116" t="s">
+      <c r="Q45" s="116" t="s">
         <v>472</v>
       </c>
-      <c r="Q45" s="116" t="s">
+      <c r="R45" s="118" t="s">
         <v>473</v>
       </c>
-      <c r="R45" s="118" t="s">
+      <c r="S45" s="119" t="s">
         <v>474</v>
-      </c>
-      <c r="S45" s="119" t="s">
-        <v>475</v>
       </c>
       <c r="T45" s="116">
         <v>8640</v>
       </c>
       <c r="U45" s="116" t="s">
+        <v>475</v>
+      </c>
+      <c r="V45" s="118" t="s">
         <v>476</v>
-      </c>
-      <c r="V45" s="118" t="s">
-        <v>477</v>
       </c>
       <c r="W45" s="120" t="s">
         <v>8</v>
@@ -15131,13 +15104,13 @@
     </row>
     <row r="46" spans="1:27" ht="24" x14ac:dyDescent="0.3">
       <c r="A46" s="114" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B46" s="2">
         <v>45647.489583333336</v>
       </c>
       <c r="C46" s="123" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D46" s="51" t="s">
         <v>18</v>
@@ -15151,29 +15124,29 @@
       <c r="I46" s="52"/>
       <c r="J46" s="52"/>
       <c r="K46" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L46" s="51" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M46" s="51"/>
       <c r="N46" s="203">
         <v>2500000</v>
       </c>
       <c r="O46" s="52" t="s">
+        <v>478</v>
+      </c>
+      <c r="P46" s="51" t="s">
         <v>479</v>
       </c>
-      <c r="P46" s="51" t="s">
+      <c r="Q46" s="51" t="s">
         <v>480</v>
       </c>
-      <c r="Q46" s="51" t="s">
+      <c r="R46" s="125" t="s">
         <v>481</v>
       </c>
-      <c r="R46" s="125" t="s">
+      <c r="S46" s="52" t="s">
         <v>482</v>
-      </c>
-      <c r="S46" s="52" t="s">
-        <v>483</v>
       </c>
       <c r="T46" s="51" t="s">
         <v>8</v>
@@ -15194,19 +15167,19 @@
         <v>9</v>
       </c>
       <c r="Z46" s="184" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AA46" s="199"/>
     </row>
     <row r="47" spans="1:27" ht="24" x14ac:dyDescent="0.3">
       <c r="A47" s="114" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B47" s="2">
         <v>45650.347222222219</v>
       </c>
       <c r="C47" s="123" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D47" s="51" t="s">
         <v>139</v>
@@ -15223,35 +15196,35 @@
         <v>45</v>
       </c>
       <c r="L47" s="51" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M47" s="51"/>
       <c r="N47" s="203">
         <v>1200000</v>
       </c>
       <c r="O47" s="52" t="s">
+        <v>485</v>
+      </c>
+      <c r="P47" s="51" t="s">
         <v>486</v>
       </c>
-      <c r="P47" s="51" t="s">
+      <c r="Q47" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="R47" s="125" t="s">
         <v>487</v>
       </c>
-      <c r="Q47" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="R47" s="125" t="s">
-        <v>488</v>
-      </c>
       <c r="S47" s="52" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="T47" s="51">
         <v>2410486356</v>
       </c>
       <c r="U47" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="V47" s="125" t="s">
         <v>234</v>
-      </c>
-      <c r="V47" s="125" t="s">
-        <v>235</v>
       </c>
       <c r="W47" s="126" t="s">
         <v>8</v>
@@ -15269,13 +15242,13 @@
     </row>
     <row r="48" spans="1:27" ht="24" x14ac:dyDescent="0.3">
       <c r="A48" s="114" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B48" s="2">
         <v>45656.270833333336</v>
       </c>
       <c r="C48" s="123" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D48" s="51" t="s">
         <v>18</v>
@@ -15292,26 +15265,26 @@
         <v>17</v>
       </c>
       <c r="L48" s="51" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="M48" s="51"/>
       <c r="N48" s="203">
         <v>1000000</v>
       </c>
       <c r="O48" s="52" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="P48" s="51" t="s">
         <v>70</v>
       </c>
       <c r="Q48" s="51" t="s">
+        <v>490</v>
+      </c>
+      <c r="R48" s="125" t="s">
         <v>491</v>
       </c>
-      <c r="R48" s="125" t="s">
-        <v>492</v>
-      </c>
       <c r="S48" s="52" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="T48" s="51" t="s">
         <v>8</v>
@@ -15387,34 +15360,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="145" t="s">
+        <v>501</v>
+      </c>
+      <c r="B1" s="151" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1" s="145" t="s">
         <v>502</v>
       </c>
-      <c r="B1" s="151" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C1" s="145" t="s">
+      <c r="D1" s="145" t="s">
         <v>503</v>
       </c>
-      <c r="D1" s="145" t="s">
+      <c r="E1" s="145" t="s">
         <v>504</v>
       </c>
-      <c r="E1" s="145" t="s">
+      <c r="F1" s="145" t="s">
         <v>505</v>
       </c>
-      <c r="F1" s="145" t="s">
+      <c r="G1" s="145" t="s">
         <v>506</v>
       </c>
-      <c r="G1" s="145" t="s">
+      <c r="H1" s="151" t="s">
+        <v>1092</v>
+      </c>
+      <c r="I1" s="145" t="s">
+        <v>494</v>
+      </c>
+      <c r="J1" s="145" t="s">
         <v>507</v>
-      </c>
-      <c r="H1" s="151" t="s">
-        <v>1093</v>
-      </c>
-      <c r="I1" s="145" t="s">
-        <v>495</v>
-      </c>
-      <c r="J1" s="145" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15422,13 +15395,13 @@
         <v>536</v>
       </c>
       <c r="B2" s="146" t="s">
+        <v>508</v>
+      </c>
+      <c r="C2" s="147" t="s">
         <v>509</v>
       </c>
-      <c r="C2" s="147" t="s">
+      <c r="D2" s="148" t="s">
         <v>510</v>
-      </c>
-      <c r="D2" s="148" t="s">
-        <v>511</v>
       </c>
       <c r="E2" s="152">
         <v>46023</v>
@@ -15441,10 +15414,10 @@
       </c>
       <c r="H2" s="152"/>
       <c r="I2" s="153" t="s">
+        <v>511</v>
+      </c>
+      <c r="J2" s="153" t="s">
         <v>512</v>
-      </c>
-      <c r="J2" s="153" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15452,13 +15425,13 @@
         <v>1563</v>
       </c>
       <c r="B3" s="146" t="s">
+        <v>513</v>
+      </c>
+      <c r="C3" s="147" t="s">
         <v>514</v>
       </c>
-      <c r="C3" s="147" t="s">
+      <c r="D3" s="148" t="s">
         <v>515</v>
-      </c>
-      <c r="D3" s="148" t="s">
-        <v>516</v>
       </c>
       <c r="E3" s="152">
         <v>45292</v>
@@ -15471,10 +15444,10 @@
       </c>
       <c r="H3" s="152"/>
       <c r="I3" s="153" t="s">
+        <v>516</v>
+      </c>
+      <c r="J3" s="153" t="s">
         <v>517</v>
-      </c>
-      <c r="J3" s="153" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15482,13 +15455,13 @@
         <v>1867</v>
       </c>
       <c r="B4" s="146" t="s">
+        <v>518</v>
+      </c>
+      <c r="C4" s="147" t="s">
         <v>519</v>
       </c>
-      <c r="C4" s="147" t="s">
+      <c r="D4" s="148" t="s">
         <v>520</v>
-      </c>
-      <c r="D4" s="148" t="s">
-        <v>521</v>
       </c>
       <c r="E4" s="152">
         <v>44562</v>
@@ -15501,10 +15474,10 @@
       </c>
       <c r="H4" s="152"/>
       <c r="I4" s="153" t="s">
+        <v>521</v>
+      </c>
+      <c r="J4" s="153" t="s">
         <v>522</v>
-      </c>
-      <c r="J4" s="153" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15512,13 +15485,13 @@
         <v>1897</v>
       </c>
       <c r="B5" s="146" t="s">
+        <v>523</v>
+      </c>
+      <c r="C5" s="147" t="s">
         <v>524</v>
       </c>
-      <c r="C5" s="147" t="s">
+      <c r="D5" s="148" t="s">
         <v>525</v>
-      </c>
-      <c r="D5" s="148" t="s">
-        <v>526</v>
       </c>
       <c r="E5" s="152">
         <v>44562</v>
@@ -15531,10 +15504,10 @@
       </c>
       <c r="H5" s="152"/>
       <c r="I5" s="153" t="s">
+        <v>526</v>
+      </c>
+      <c r="J5" s="153" t="s">
         <v>527</v>
-      </c>
-      <c r="J5" s="153" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15542,13 +15515,13 @@
         <v>1918</v>
       </c>
       <c r="B6" s="146" t="s">
+        <v>528</v>
+      </c>
+      <c r="C6" s="147" t="s">
         <v>529</v>
       </c>
-      <c r="C6" s="147" t="s">
+      <c r="D6" s="148" t="s">
         <v>530</v>
-      </c>
-      <c r="D6" s="148" t="s">
-        <v>531</v>
       </c>
       <c r="E6" s="152">
         <v>45292</v>
@@ -15561,10 +15534,10 @@
       </c>
       <c r="H6" s="152"/>
       <c r="I6" s="153" t="s">
+        <v>531</v>
+      </c>
+      <c r="J6" s="153" t="s">
         <v>532</v>
-      </c>
-      <c r="J6" s="153" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15572,13 +15545,13 @@
         <v>1979</v>
       </c>
       <c r="B7" s="146" t="s">
+        <v>533</v>
+      </c>
+      <c r="C7" s="147" t="s">
         <v>534</v>
       </c>
-      <c r="C7" s="147" t="s">
+      <c r="D7" s="148" t="s">
         <v>535</v>
-      </c>
-      <c r="D7" s="148" t="s">
-        <v>536</v>
       </c>
       <c r="E7" s="152">
         <v>46023</v>
@@ -15591,10 +15564,10 @@
       </c>
       <c r="H7" s="152"/>
       <c r="I7" s="153" t="s">
+        <v>536</v>
+      </c>
+      <c r="J7" s="153" t="s">
         <v>537</v>
-      </c>
-      <c r="J7" s="153" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15602,13 +15575,13 @@
         <v>1981</v>
       </c>
       <c r="B8" s="146" t="s">
+        <v>538</v>
+      </c>
+      <c r="C8" s="147" t="s">
         <v>539</v>
       </c>
-      <c r="C8" s="147" t="s">
+      <c r="D8" s="148" t="s">
         <v>540</v>
-      </c>
-      <c r="D8" s="148" t="s">
-        <v>541</v>
       </c>
       <c r="E8" s="152">
         <v>46023</v>
@@ -15621,10 +15594,10 @@
       </c>
       <c r="H8" s="152"/>
       <c r="I8" s="153" t="s">
+        <v>541</v>
+      </c>
+      <c r="J8" s="153" t="s">
         <v>542</v>
-      </c>
-      <c r="J8" s="153" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15632,13 +15605,13 @@
         <v>2386</v>
       </c>
       <c r="B9" s="146" t="s">
+        <v>543</v>
+      </c>
+      <c r="C9" s="147" t="s">
         <v>544</v>
       </c>
-      <c r="C9" s="147" t="s">
+      <c r="D9" s="148" t="s">
         <v>545</v>
-      </c>
-      <c r="D9" s="148" t="s">
-        <v>546</v>
       </c>
       <c r="E9" s="152">
         <v>46023</v>
@@ -15651,10 +15624,10 @@
       </c>
       <c r="H9" s="152"/>
       <c r="I9" s="153" t="s">
+        <v>546</v>
+      </c>
+      <c r="J9" s="153" t="s">
         <v>547</v>
-      </c>
-      <c r="J9" s="153" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15662,13 +15635,13 @@
         <v>2415</v>
       </c>
       <c r="B10" s="146" t="s">
+        <v>548</v>
+      </c>
+      <c r="C10" s="147" t="s">
         <v>549</v>
       </c>
-      <c r="C10" s="147" t="s">
+      <c r="D10" s="148" t="s">
         <v>550</v>
-      </c>
-      <c r="D10" s="148" t="s">
-        <v>551</v>
       </c>
       <c r="E10" s="152">
         <v>45658</v>
@@ -15681,10 +15654,10 @@
       </c>
       <c r="H10" s="152"/>
       <c r="I10" s="153" t="s">
+        <v>551</v>
+      </c>
+      <c r="J10" s="153" t="s">
         <v>552</v>
-      </c>
-      <c r="J10" s="153" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15692,13 +15665,13 @@
         <v>2518</v>
       </c>
       <c r="B11" s="146" t="s">
+        <v>553</v>
+      </c>
+      <c r="C11" s="147" t="s">
         <v>554</v>
       </c>
-      <c r="C11" s="147" t="s">
+      <c r="D11" s="148" t="s">
         <v>555</v>
-      </c>
-      <c r="D11" s="148" t="s">
-        <v>556</v>
       </c>
       <c r="E11" s="152">
         <v>44927</v>
@@ -15711,10 +15684,10 @@
       </c>
       <c r="H11" s="152"/>
       <c r="I11" s="153" t="s">
+        <v>556</v>
+      </c>
+      <c r="J11" s="153" t="s">
         <v>557</v>
-      </c>
-      <c r="J11" s="153" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15722,13 +15695,13 @@
         <v>2571</v>
       </c>
       <c r="B12" s="146" t="s">
+        <v>558</v>
+      </c>
+      <c r="C12" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="C12" s="147" t="s">
+      <c r="D12" s="148" t="s">
         <v>560</v>
-      </c>
-      <c r="D12" s="148" t="s">
-        <v>561</v>
       </c>
       <c r="E12" s="152">
         <v>46753</v>
@@ -15741,10 +15714,10 @@
       </c>
       <c r="H12" s="152"/>
       <c r="I12" s="153" t="s">
+        <v>561</v>
+      </c>
+      <c r="J12" s="153" t="s">
         <v>562</v>
-      </c>
-      <c r="J12" s="153" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15752,13 +15725,13 @@
         <v>2581</v>
       </c>
       <c r="B13" s="146" t="s">
+        <v>563</v>
+      </c>
+      <c r="C13" s="147" t="s">
         <v>564</v>
       </c>
-      <c r="C13" s="147" t="s">
+      <c r="D13" s="148" t="s">
         <v>565</v>
-      </c>
-      <c r="D13" s="148" t="s">
-        <v>566</v>
       </c>
       <c r="E13" s="152">
         <v>45292</v>
@@ -15771,10 +15744,10 @@
       </c>
       <c r="H13" s="152"/>
       <c r="I13" s="153" t="s">
+        <v>566</v>
+      </c>
+      <c r="J13" s="153" t="s">
         <v>567</v>
-      </c>
-      <c r="J13" s="153" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15782,13 +15755,13 @@
         <v>2603</v>
       </c>
       <c r="B14" s="149" t="s">
+        <v>568</v>
+      </c>
+      <c r="C14" s="147" t="s">
         <v>569</v>
       </c>
-      <c r="C14" s="147" t="s">
+      <c r="D14" s="148" t="s">
         <v>570</v>
-      </c>
-      <c r="D14" s="148" t="s">
-        <v>571</v>
       </c>
       <c r="E14" s="153"/>
       <c r="F14" s="153"/>
@@ -15797,10 +15770,10 @@
       </c>
       <c r="H14" s="152"/>
       <c r="I14" s="153" t="s">
+        <v>571</v>
+      </c>
+      <c r="J14" s="153" t="s">
         <v>572</v>
-      </c>
-      <c r="J14" s="153" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15808,13 +15781,13 @@
         <v>2604</v>
       </c>
       <c r="B15" s="146" t="s">
+        <v>573</v>
+      </c>
+      <c r="C15" s="147" t="s">
         <v>574</v>
       </c>
-      <c r="C15" s="147" t="s">
+      <c r="D15" s="148" t="s">
         <v>575</v>
-      </c>
-      <c r="D15" s="148" t="s">
-        <v>576</v>
       </c>
       <c r="E15" s="152">
         <v>45292</v>
@@ -15827,10 +15800,10 @@
       </c>
       <c r="H15" s="152"/>
       <c r="I15" s="153" t="s">
+        <v>576</v>
+      </c>
+      <c r="J15" s="153" t="s">
         <v>577</v>
-      </c>
-      <c r="J15" s="153" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15838,13 +15811,13 @@
         <v>2618</v>
       </c>
       <c r="B16" s="146" t="s">
+        <v>578</v>
+      </c>
+      <c r="C16" s="147" t="s">
         <v>579</v>
       </c>
-      <c r="C16" s="147" t="s">
+      <c r="D16" s="148" t="s">
         <v>580</v>
-      </c>
-      <c r="D16" s="148" t="s">
-        <v>581</v>
       </c>
       <c r="E16" s="152">
         <v>46023</v>
@@ -15857,10 +15830,10 @@
       </c>
       <c r="H16" s="152"/>
       <c r="I16" s="153" t="s">
+        <v>581</v>
+      </c>
+      <c r="J16" s="153" t="s">
         <v>582</v>
-      </c>
-      <c r="J16" s="153" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15868,13 +15841,13 @@
         <v>2632</v>
       </c>
       <c r="B17" s="146" t="s">
+        <v>583</v>
+      </c>
+      <c r="C17" s="147" t="s">
         <v>584</v>
       </c>
-      <c r="C17" s="147" t="s">
+      <c r="D17" s="148" t="s">
         <v>585</v>
-      </c>
-      <c r="D17" s="148" t="s">
-        <v>586</v>
       </c>
       <c r="E17" s="152">
         <v>45292</v>
@@ -15887,10 +15860,10 @@
       </c>
       <c r="H17" s="152"/>
       <c r="I17" s="153" t="s">
+        <v>586</v>
+      </c>
+      <c r="J17" s="153" t="s">
         <v>587</v>
-      </c>
-      <c r="J17" s="153" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15898,13 +15871,13 @@
         <v>2643</v>
       </c>
       <c r="B18" s="146" t="s">
+        <v>588</v>
+      </c>
+      <c r="C18" s="147" t="s">
         <v>589</v>
       </c>
-      <c r="C18" s="147" t="s">
+      <c r="D18" s="148" t="s">
         <v>590</v>
-      </c>
-      <c r="D18" s="148" t="s">
-        <v>591</v>
       </c>
       <c r="E18" s="152">
         <v>45658</v>
@@ -15917,10 +15890,10 @@
       </c>
       <c r="H18" s="152"/>
       <c r="I18" s="153" t="s">
+        <v>591</v>
+      </c>
+      <c r="J18" s="153" t="s">
         <v>592</v>
-      </c>
-      <c r="J18" s="153" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15928,13 +15901,13 @@
         <v>2645</v>
       </c>
       <c r="B19" s="146" t="s">
+        <v>593</v>
+      </c>
+      <c r="C19" s="147" t="s">
         <v>594</v>
       </c>
-      <c r="C19" s="147" t="s">
+      <c r="D19" s="148" t="s">
         <v>595</v>
-      </c>
-      <c r="D19" s="148" t="s">
-        <v>596</v>
       </c>
       <c r="E19" s="152">
         <v>45292</v>
@@ -15947,10 +15920,10 @@
       </c>
       <c r="H19" s="152"/>
       <c r="I19" s="153" t="s">
+        <v>596</v>
+      </c>
+      <c r="J19" s="153" t="s">
         <v>597</v>
-      </c>
-      <c r="J19" s="153" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15958,13 +15931,13 @@
         <v>2647</v>
       </c>
       <c r="B20" s="146" t="s">
+        <v>598</v>
+      </c>
+      <c r="C20" s="147" t="s">
         <v>599</v>
       </c>
-      <c r="C20" s="147" t="s">
+      <c r="D20" s="148" t="s">
         <v>600</v>
-      </c>
-      <c r="D20" s="148" t="s">
-        <v>601</v>
       </c>
       <c r="E20" s="152">
         <v>44927</v>
@@ -15977,10 +15950,10 @@
       </c>
       <c r="H20" s="152"/>
       <c r="I20" s="153" t="s">
+        <v>601</v>
+      </c>
+      <c r="J20" s="153" t="s">
         <v>602</v>
-      </c>
-      <c r="J20" s="153" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -15988,13 +15961,13 @@
         <v>2693</v>
       </c>
       <c r="B21" s="146" t="s">
+        <v>603</v>
+      </c>
+      <c r="C21" s="147" t="s">
         <v>604</v>
       </c>
-      <c r="C21" s="147" t="s">
+      <c r="D21" s="148" t="s">
         <v>605</v>
-      </c>
-      <c r="D21" s="148" t="s">
-        <v>606</v>
       </c>
       <c r="E21" s="152">
         <v>45658</v>
@@ -16007,10 +15980,10 @@
       </c>
       <c r="H21" s="152"/>
       <c r="I21" s="153" t="s">
+        <v>606</v>
+      </c>
+      <c r="J21" s="153" t="s">
         <v>607</v>
-      </c>
-      <c r="J21" s="153" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16018,13 +15991,13 @@
         <v>2702</v>
       </c>
       <c r="B22" s="146" t="s">
+        <v>608</v>
+      </c>
+      <c r="C22" s="147" t="s">
         <v>609</v>
       </c>
-      <c r="C22" s="147" t="s">
+      <c r="D22" s="148" t="s">
         <v>610</v>
-      </c>
-      <c r="D22" s="148" t="s">
-        <v>611</v>
       </c>
       <c r="E22" s="152">
         <v>44927</v>
@@ -16037,10 +16010,10 @@
       </c>
       <c r="H22" s="152"/>
       <c r="I22" s="153" t="s">
+        <v>611</v>
+      </c>
+      <c r="J22" s="153" t="s">
         <v>612</v>
-      </c>
-      <c r="J22" s="153" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16048,13 +16021,13 @@
         <v>2730</v>
       </c>
       <c r="B23" s="146" t="s">
+        <v>613</v>
+      </c>
+      <c r="C23" s="147" t="s">
         <v>614</v>
       </c>
-      <c r="C23" s="147" t="s">
+      <c r="D23" s="148" t="s">
         <v>615</v>
-      </c>
-      <c r="D23" s="148" t="s">
-        <v>616</v>
       </c>
       <c r="E23" s="152">
         <v>44562</v>
@@ -16067,10 +16040,10 @@
       </c>
       <c r="H23" s="152"/>
       <c r="I23" s="153" t="s">
+        <v>616</v>
+      </c>
+      <c r="J23" s="153" t="s">
         <v>617</v>
-      </c>
-      <c r="J23" s="153" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16078,13 +16051,13 @@
         <v>2737</v>
       </c>
       <c r="B24" s="146" t="s">
+        <v>618</v>
+      </c>
+      <c r="C24" s="147" t="s">
         <v>619</v>
       </c>
-      <c r="C24" s="147" t="s">
+      <c r="D24" s="148" t="s">
         <v>620</v>
-      </c>
-      <c r="D24" s="148" t="s">
-        <v>621</v>
       </c>
       <c r="E24" s="152">
         <v>46388</v>
@@ -16097,10 +16070,10 @@
       </c>
       <c r="H24" s="152"/>
       <c r="I24" s="153" t="s">
+        <v>621</v>
+      </c>
+      <c r="J24" s="153" t="s">
         <v>622</v>
-      </c>
-      <c r="J24" s="153" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16108,13 +16081,13 @@
         <v>2750</v>
       </c>
       <c r="B25" s="146" t="s">
+        <v>623</v>
+      </c>
+      <c r="C25" s="147" t="s">
         <v>624</v>
       </c>
-      <c r="C25" s="147" t="s">
+      <c r="D25" s="148" t="s">
         <v>625</v>
-      </c>
-      <c r="D25" s="148" t="s">
-        <v>626</v>
       </c>
       <c r="E25" s="152">
         <v>44927</v>
@@ -16127,10 +16100,10 @@
       </c>
       <c r="H25" s="152"/>
       <c r="I25" s="153" t="s">
+        <v>626</v>
+      </c>
+      <c r="J25" s="153" t="s">
         <v>627</v>
-      </c>
-      <c r="J25" s="153" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16138,13 +16111,13 @@
         <v>2758</v>
       </c>
       <c r="B26" s="146" t="s">
+        <v>628</v>
+      </c>
+      <c r="C26" s="147" t="s">
         <v>629</v>
       </c>
-      <c r="C26" s="147" t="s">
+      <c r="D26" s="148" t="s">
         <v>630</v>
-      </c>
-      <c r="D26" s="148" t="s">
-        <v>631</v>
       </c>
       <c r="E26" s="152">
         <v>45292</v>
@@ -16157,10 +16130,10 @@
       </c>
       <c r="H26" s="152"/>
       <c r="I26" s="153" t="s">
+        <v>631</v>
+      </c>
+      <c r="J26" s="153" t="s">
         <v>632</v>
-      </c>
-      <c r="J26" s="153" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16168,13 +16141,13 @@
         <v>2759</v>
       </c>
       <c r="B27" s="146" t="s">
+        <v>633</v>
+      </c>
+      <c r="C27" s="147" t="s">
         <v>634</v>
       </c>
-      <c r="C27" s="147" t="s">
+      <c r="D27" s="148" t="s">
         <v>635</v>
-      </c>
-      <c r="D27" s="148" t="s">
-        <v>636</v>
       </c>
       <c r="E27" s="152">
         <v>44562</v>
@@ -16187,10 +16160,10 @@
       </c>
       <c r="H27" s="152"/>
       <c r="I27" s="153" t="s">
+        <v>636</v>
+      </c>
+      <c r="J27" s="153" t="s">
         <v>637</v>
-      </c>
-      <c r="J27" s="153" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16198,13 +16171,13 @@
         <v>2798</v>
       </c>
       <c r="B28" s="146" t="s">
+        <v>638</v>
+      </c>
+      <c r="C28" s="147" t="s">
         <v>639</v>
       </c>
-      <c r="C28" s="147" t="s">
+      <c r="D28" s="148" t="s">
         <v>640</v>
-      </c>
-      <c r="D28" s="148" t="s">
-        <v>641</v>
       </c>
       <c r="E28" s="152">
         <v>45658</v>
@@ -16217,10 +16190,10 @@
       </c>
       <c r="H28" s="152"/>
       <c r="I28" s="153" t="s">
+        <v>641</v>
+      </c>
+      <c r="J28" s="153" t="s">
         <v>642</v>
-      </c>
-      <c r="J28" s="153" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16228,13 +16201,13 @@
         <v>2806</v>
       </c>
       <c r="B29" s="146" t="s">
+        <v>643</v>
+      </c>
+      <c r="C29" s="147" t="s">
         <v>644</v>
       </c>
-      <c r="C29" s="147" t="s">
+      <c r="D29" s="148" t="s">
         <v>645</v>
-      </c>
-      <c r="D29" s="148" t="s">
-        <v>646</v>
       </c>
       <c r="E29" s="152">
         <v>46023</v>
@@ -16247,10 +16220,10 @@
       </c>
       <c r="H29" s="152"/>
       <c r="I29" s="153" t="s">
+        <v>646</v>
+      </c>
+      <c r="J29" s="153" t="s">
         <v>647</v>
-      </c>
-      <c r="J29" s="153" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16258,13 +16231,13 @@
         <v>2813</v>
       </c>
       <c r="B30" s="146" t="s">
+        <v>648</v>
+      </c>
+      <c r="C30" s="147" t="s">
         <v>649</v>
       </c>
-      <c r="C30" s="147" t="s">
+      <c r="D30" s="148" t="s">
         <v>650</v>
-      </c>
-      <c r="D30" s="148" t="s">
-        <v>651</v>
       </c>
       <c r="E30" s="152">
         <v>45292</v>
@@ -16277,10 +16250,10 @@
       </c>
       <c r="H30" s="152"/>
       <c r="I30" s="153" t="s">
+        <v>651</v>
+      </c>
+      <c r="J30" s="153" t="s">
         <v>652</v>
-      </c>
-      <c r="J30" s="153" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16288,13 +16261,13 @@
         <v>2818</v>
       </c>
       <c r="B31" s="146" t="s">
+        <v>653</v>
+      </c>
+      <c r="C31" s="147" t="s">
         <v>654</v>
       </c>
-      <c r="C31" s="147" t="s">
+      <c r="D31" s="148" t="s">
         <v>655</v>
-      </c>
-      <c r="D31" s="148" t="s">
-        <v>656</v>
       </c>
       <c r="E31" s="152">
         <v>45658</v>
@@ -16307,10 +16280,10 @@
       </c>
       <c r="H31" s="152"/>
       <c r="I31" s="153" t="s">
+        <v>656</v>
+      </c>
+      <c r="J31" s="153" t="s">
         <v>657</v>
-      </c>
-      <c r="J31" s="153" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16318,13 +16291,13 @@
         <v>2823</v>
       </c>
       <c r="B32" s="146" t="s">
+        <v>658</v>
+      </c>
+      <c r="C32" s="147" t="s">
         <v>659</v>
       </c>
-      <c r="C32" s="147" t="s">
+      <c r="D32" s="148" t="s">
         <v>660</v>
-      </c>
-      <c r="D32" s="148" t="s">
-        <v>661</v>
       </c>
       <c r="E32" s="152">
         <v>43831</v>
@@ -16337,10 +16310,10 @@
       </c>
       <c r="H32" s="152"/>
       <c r="I32" s="153" t="s">
+        <v>661</v>
+      </c>
+      <c r="J32" s="153" t="s">
         <v>662</v>
-      </c>
-      <c r="J32" s="153" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16348,13 +16321,13 @@
         <v>2835</v>
       </c>
       <c r="B33" s="146" t="s">
+        <v>663</v>
+      </c>
+      <c r="C33" s="147" t="s">
         <v>664</v>
       </c>
-      <c r="C33" s="147" t="s">
+      <c r="D33" s="148" t="s">
         <v>665</v>
-      </c>
-      <c r="D33" s="148" t="s">
-        <v>666</v>
       </c>
       <c r="E33" s="152">
         <v>45292</v>
@@ -16367,10 +16340,10 @@
       </c>
       <c r="H33" s="152"/>
       <c r="I33" s="153" t="s">
+        <v>666</v>
+      </c>
+      <c r="J33" s="153" t="s">
         <v>667</v>
-      </c>
-      <c r="J33" s="153" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16378,13 +16351,13 @@
         <v>2838</v>
       </c>
       <c r="B34" s="146" t="s">
+        <v>668</v>
+      </c>
+      <c r="C34" s="147" t="s">
         <v>669</v>
       </c>
-      <c r="C34" s="147" t="s">
+      <c r="D34" s="148" t="s">
         <v>670</v>
-      </c>
-      <c r="D34" s="148" t="s">
-        <v>671</v>
       </c>
       <c r="E34" s="152">
         <v>44927</v>
@@ -16397,10 +16370,10 @@
       </c>
       <c r="H34" s="152"/>
       <c r="I34" s="153" t="s">
+        <v>671</v>
+      </c>
+      <c r="J34" s="153" t="s">
         <v>672</v>
-      </c>
-      <c r="J34" s="153" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16408,13 +16381,13 @@
         <v>2844</v>
       </c>
       <c r="B35" s="146" t="s">
+        <v>673</v>
+      </c>
+      <c r="C35" s="147" t="s">
         <v>674</v>
       </c>
-      <c r="C35" s="147" t="s">
+      <c r="D35" s="148" t="s">
         <v>675</v>
-      </c>
-      <c r="D35" s="148" t="s">
-        <v>676</v>
       </c>
       <c r="E35" s="152">
         <v>44927</v>
@@ -16427,10 +16400,10 @@
       </c>
       <c r="H35" s="152"/>
       <c r="I35" s="153" t="s">
+        <v>676</v>
+      </c>
+      <c r="J35" s="153" t="s">
         <v>677</v>
-      </c>
-      <c r="J35" s="153" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16438,13 +16411,13 @@
         <v>2846</v>
       </c>
       <c r="B36" s="150" t="s">
+        <v>678</v>
+      </c>
+      <c r="C36" s="147" t="s">
         <v>679</v>
       </c>
-      <c r="C36" s="147" t="s">
+      <c r="D36" s="148" t="s">
         <v>680</v>
-      </c>
-      <c r="D36" s="148" t="s">
-        <v>681</v>
       </c>
       <c r="E36" s="153"/>
       <c r="F36" s="153"/>
@@ -16453,10 +16426,10 @@
       </c>
       <c r="H36" s="152"/>
       <c r="I36" s="153" t="s">
+        <v>681</v>
+      </c>
+      <c r="J36" s="153" t="s">
         <v>682</v>
-      </c>
-      <c r="J36" s="153" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16464,13 +16437,13 @@
         <v>6003</v>
       </c>
       <c r="B37" s="146" t="s">
+        <v>683</v>
+      </c>
+      <c r="C37" s="147" t="s">
         <v>684</v>
       </c>
-      <c r="C37" s="147" t="s">
+      <c r="D37" s="148" t="s">
         <v>685</v>
-      </c>
-      <c r="D37" s="148" t="s">
-        <v>686</v>
       </c>
       <c r="E37" s="152">
         <v>46023</v>
@@ -16483,10 +16456,10 @@
       </c>
       <c r="H37" s="152"/>
       <c r="I37" s="153" t="s">
+        <v>686</v>
+      </c>
+      <c r="J37" s="153" t="s">
         <v>687</v>
-      </c>
-      <c r="J37" s="153" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16494,13 +16467,13 @@
         <v>6012</v>
       </c>
       <c r="B38" s="146" t="s">
+        <v>688</v>
+      </c>
+      <c r="C38" s="147" t="s">
         <v>689</v>
       </c>
-      <c r="C38" s="147" t="s">
+      <c r="D38" s="148" t="s">
         <v>690</v>
-      </c>
-      <c r="D38" s="148" t="s">
-        <v>691</v>
       </c>
       <c r="E38" s="152">
         <v>46023</v>
@@ -16513,10 +16486,10 @@
       </c>
       <c r="H38" s="152"/>
       <c r="I38" s="153" t="s">
+        <v>691</v>
+      </c>
+      <c r="J38" s="153" t="s">
         <v>692</v>
-      </c>
-      <c r="J38" s="153" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16524,10 +16497,10 @@
         <v>6020</v>
       </c>
       <c r="B39" s="149" t="s">
+        <v>693</v>
+      </c>
+      <c r="C39" s="147" t="s">
         <v>694</v>
-      </c>
-      <c r="C39" s="147" t="s">
-        <v>695</v>
       </c>
       <c r="D39" s="148"/>
       <c r="E39" s="153"/>
@@ -16537,10 +16510,10 @@
       </c>
       <c r="H39" s="152"/>
       <c r="I39" s="153" t="s">
+        <v>695</v>
+      </c>
+      <c r="J39" s="153" t="s">
         <v>696</v>
-      </c>
-      <c r="J39" s="153" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16548,13 +16521,13 @@
         <v>6023</v>
       </c>
       <c r="B40" s="146" t="s">
+        <v>697</v>
+      </c>
+      <c r="C40" s="147" t="s">
         <v>698</v>
       </c>
-      <c r="C40" s="147" t="s">
+      <c r="D40" s="148" t="s">
         <v>699</v>
-      </c>
-      <c r="D40" s="148" t="s">
-        <v>700</v>
       </c>
       <c r="E40" s="152">
         <v>46753</v>
@@ -16567,10 +16540,10 @@
       </c>
       <c r="H40" s="152"/>
       <c r="I40" s="153" t="s">
+        <v>700</v>
+      </c>
+      <c r="J40" s="153" t="s">
         <v>701</v>
-      </c>
-      <c r="J40" s="153" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16578,13 +16551,13 @@
         <v>6026</v>
       </c>
       <c r="B41" s="146" t="s">
+        <v>702</v>
+      </c>
+      <c r="C41" s="147" t="s">
         <v>703</v>
       </c>
-      <c r="C41" s="147" t="s">
+      <c r="D41" s="148" t="s">
         <v>704</v>
-      </c>
-      <c r="D41" s="148" t="s">
-        <v>705</v>
       </c>
       <c r="E41" s="152">
         <v>46753</v>
@@ -16597,10 +16570,10 @@
       </c>
       <c r="H41" s="152"/>
       <c r="I41" s="153" t="s">
+        <v>705</v>
+      </c>
+      <c r="J41" s="153" t="s">
         <v>706</v>
-      </c>
-      <c r="J41" s="153" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16608,13 +16581,13 @@
         <v>6042</v>
       </c>
       <c r="B42" s="146" t="s">
+        <v>707</v>
+      </c>
+      <c r="C42" s="147" t="s">
         <v>708</v>
       </c>
-      <c r="C42" s="147" t="s">
+      <c r="D42" s="148" t="s">
         <v>709</v>
-      </c>
-      <c r="D42" s="148" t="s">
-        <v>710</v>
       </c>
       <c r="E42" s="152">
         <v>45658</v>
@@ -16627,10 +16600,10 @@
       </c>
       <c r="H42" s="152"/>
       <c r="I42" s="153" t="s">
+        <v>710</v>
+      </c>
+      <c r="J42" s="153" t="s">
         <v>711</v>
-      </c>
-      <c r="J42" s="153" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16638,13 +16611,13 @@
         <v>6046</v>
       </c>
       <c r="B43" s="146" t="s">
+        <v>712</v>
+      </c>
+      <c r="C43" s="147" t="s">
         <v>713</v>
       </c>
-      <c r="C43" s="147" t="s">
+      <c r="D43" s="148" t="s">
         <v>714</v>
-      </c>
-      <c r="D43" s="148" t="s">
-        <v>715</v>
       </c>
       <c r="E43" s="152">
         <v>46023</v>
@@ -16657,10 +16630,10 @@
       </c>
       <c r="H43" s="152"/>
       <c r="I43" s="153" t="s">
+        <v>715</v>
+      </c>
+      <c r="J43" s="153" t="s">
         <v>716</v>
-      </c>
-      <c r="J43" s="153" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16668,13 +16641,13 @@
         <v>6047</v>
       </c>
       <c r="B44" s="146" t="s">
+        <v>717</v>
+      </c>
+      <c r="C44" s="147" t="s">
         <v>718</v>
       </c>
-      <c r="C44" s="147" t="s">
+      <c r="D44" s="148" t="s">
         <v>719</v>
-      </c>
-      <c r="D44" s="148" t="s">
-        <v>720</v>
       </c>
       <c r="E44" s="152">
         <v>45658</v>
@@ -16687,10 +16660,10 @@
       </c>
       <c r="H44" s="152"/>
       <c r="I44" s="153" t="s">
+        <v>720</v>
+      </c>
+      <c r="J44" s="153" t="s">
         <v>721</v>
-      </c>
-      <c r="J44" s="153" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16698,13 +16671,13 @@
         <v>6054</v>
       </c>
       <c r="B45" s="146" t="s">
+        <v>722</v>
+      </c>
+      <c r="C45" s="147" t="s">
         <v>723</v>
       </c>
-      <c r="C45" s="147" t="s">
+      <c r="D45" s="148" t="s">
         <v>724</v>
-      </c>
-      <c r="D45" s="148" t="s">
-        <v>725</v>
       </c>
       <c r="E45" s="152">
         <v>44562</v>
@@ -16717,10 +16690,10 @@
       </c>
       <c r="H45" s="152"/>
       <c r="I45" s="153" t="s">
+        <v>725</v>
+      </c>
+      <c r="J45" s="153" t="s">
         <v>726</v>
-      </c>
-      <c r="J45" s="153" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16728,13 +16701,13 @@
         <v>6060</v>
       </c>
       <c r="B46" s="146" t="s">
+        <v>727</v>
+      </c>
+      <c r="C46" s="147" t="s">
         <v>728</v>
       </c>
-      <c r="C46" s="147" t="s">
+      <c r="D46" s="148" t="s">
         <v>729</v>
-      </c>
-      <c r="D46" s="148" t="s">
-        <v>730</v>
       </c>
       <c r="E46" s="152">
         <v>46753</v>
@@ -16747,10 +16720,10 @@
       </c>
       <c r="H46" s="152"/>
       <c r="I46" s="153" t="s">
+        <v>730</v>
+      </c>
+      <c r="J46" s="153" t="s">
         <v>731</v>
-      </c>
-      <c r="J46" s="153" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16758,13 +16731,13 @@
         <v>6071</v>
       </c>
       <c r="B47" s="146" t="s">
+        <v>732</v>
+      </c>
+      <c r="C47" s="147" t="s">
         <v>733</v>
       </c>
-      <c r="C47" s="147" t="s">
+      <c r="D47" s="148" t="s">
         <v>734</v>
-      </c>
-      <c r="D47" s="148" t="s">
-        <v>735</v>
       </c>
       <c r="E47" s="152">
         <v>46023</v>
@@ -16777,10 +16750,10 @@
       </c>
       <c r="H47" s="152"/>
       <c r="I47" s="153" t="s">
+        <v>735</v>
+      </c>
+      <c r="J47" s="153" t="s">
         <v>736</v>
-      </c>
-      <c r="J47" s="153" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16788,13 +16761,13 @@
         <v>6072</v>
       </c>
       <c r="B48" s="146" t="s">
+        <v>737</v>
+      </c>
+      <c r="C48" s="147" t="s">
         <v>738</v>
       </c>
-      <c r="C48" s="147" t="s">
+      <c r="D48" s="148" t="s">
         <v>739</v>
-      </c>
-      <c r="D48" s="148" t="s">
-        <v>740</v>
       </c>
       <c r="E48" s="152">
         <v>45658</v>
@@ -16807,10 +16780,10 @@
       </c>
       <c r="H48" s="152"/>
       <c r="I48" s="153" t="s">
+        <v>740</v>
+      </c>
+      <c r="J48" s="153" t="s">
         <v>741</v>
-      </c>
-      <c r="J48" s="153" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16818,13 +16791,13 @@
         <v>6074</v>
       </c>
       <c r="B49" s="146" t="s">
+        <v>742</v>
+      </c>
+      <c r="C49" s="147" t="s">
         <v>743</v>
       </c>
-      <c r="C49" s="147" t="s">
+      <c r="D49" s="148" t="s">
         <v>744</v>
-      </c>
-      <c r="D49" s="148" t="s">
-        <v>745</v>
       </c>
       <c r="E49" s="152">
         <v>46023</v>
@@ -16837,10 +16810,10 @@
       </c>
       <c r="H49" s="152"/>
       <c r="I49" s="153" t="s">
+        <v>745</v>
+      </c>
+      <c r="J49" s="153" t="s">
         <v>746</v>
-      </c>
-      <c r="J49" s="153" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16848,13 +16821,13 @@
         <v>6075</v>
       </c>
       <c r="B50" s="146" t="s">
+        <v>747</v>
+      </c>
+      <c r="C50" s="147" t="s">
         <v>748</v>
       </c>
-      <c r="C50" s="147" t="s">
+      <c r="D50" s="148" t="s">
         <v>749</v>
-      </c>
-      <c r="D50" s="148" t="s">
-        <v>750</v>
       </c>
       <c r="E50" s="152">
         <v>45658</v>
@@ -16867,10 +16840,10 @@
       </c>
       <c r="H50" s="152"/>
       <c r="I50" s="153" t="s">
+        <v>750</v>
+      </c>
+      <c r="J50" s="153" t="s">
         <v>751</v>
-      </c>
-      <c r="J50" s="153" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16878,13 +16851,13 @@
         <v>6078</v>
       </c>
       <c r="B51" s="146" t="s">
+        <v>752</v>
+      </c>
+      <c r="C51" s="147" t="s">
         <v>753</v>
       </c>
-      <c r="C51" s="147" t="s">
+      <c r="D51" s="148" t="s">
         <v>754</v>
-      </c>
-      <c r="D51" s="148" t="s">
-        <v>755</v>
       </c>
       <c r="E51" s="152">
         <v>46753</v>
@@ -16897,10 +16870,10 @@
       </c>
       <c r="H51" s="152"/>
       <c r="I51" s="153" t="s">
+        <v>755</v>
+      </c>
+      <c r="J51" s="153" t="s">
         <v>756</v>
-      </c>
-      <c r="J51" s="153" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16908,13 +16881,13 @@
         <v>6079</v>
       </c>
       <c r="B52" s="146" t="s">
+        <v>757</v>
+      </c>
+      <c r="C52" s="147" t="s">
         <v>758</v>
       </c>
-      <c r="C52" s="147" t="s">
+      <c r="D52" s="148" t="s">
         <v>759</v>
-      </c>
-      <c r="D52" s="148" t="s">
-        <v>760</v>
       </c>
       <c r="E52" s="152">
         <v>45292</v>
@@ -16927,10 +16900,10 @@
       </c>
       <c r="H52" s="152"/>
       <c r="I52" s="153" t="s">
+        <v>760</v>
+      </c>
+      <c r="J52" s="153" t="s">
         <v>761</v>
-      </c>
-      <c r="J52" s="153" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16938,13 +16911,13 @@
         <v>6080</v>
       </c>
       <c r="B53" s="146" t="s">
+        <v>762</v>
+      </c>
+      <c r="C53" s="147" t="s">
         <v>763</v>
       </c>
-      <c r="C53" s="147" t="s">
+      <c r="D53" s="148" t="s">
         <v>764</v>
-      </c>
-      <c r="D53" s="148" t="s">
-        <v>765</v>
       </c>
       <c r="E53" s="152">
         <v>46388</v>
@@ -16957,10 +16930,10 @@
       </c>
       <c r="H53" s="152"/>
       <c r="I53" s="153" t="s">
+        <v>765</v>
+      </c>
+      <c r="J53" s="153" t="s">
         <v>766</v>
-      </c>
-      <c r="J53" s="153" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16968,13 +16941,13 @@
         <v>6081</v>
       </c>
       <c r="B54" s="146" t="s">
+        <v>767</v>
+      </c>
+      <c r="C54" s="147" t="s">
         <v>768</v>
       </c>
-      <c r="C54" s="147" t="s">
+      <c r="D54" s="148" t="s">
         <v>769</v>
-      </c>
-      <c r="D54" s="148" t="s">
-        <v>770</v>
       </c>
       <c r="E54" s="152">
         <v>46753</v>
@@ -16987,10 +16960,10 @@
       </c>
       <c r="H54" s="152"/>
       <c r="I54" s="153" t="s">
+        <v>770</v>
+      </c>
+      <c r="J54" s="153" t="s">
         <v>771</v>
-      </c>
-      <c r="J54" s="153" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16998,13 +16971,13 @@
         <v>6086</v>
       </c>
       <c r="B55" s="146" t="s">
+        <v>772</v>
+      </c>
+      <c r="C55" s="147" t="s">
         <v>773</v>
       </c>
-      <c r="C55" s="147" t="s">
+      <c r="D55" s="148" t="s">
         <v>774</v>
-      </c>
-      <c r="D55" s="148" t="s">
-        <v>775</v>
       </c>
       <c r="E55" s="152">
         <v>46753</v>
@@ -17017,10 +16990,10 @@
       </c>
       <c r="H55" s="152"/>
       <c r="I55" s="153" t="s">
+        <v>775</v>
+      </c>
+      <c r="J55" s="153" t="s">
         <v>776</v>
-      </c>
-      <c r="J55" s="153" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17028,29 +17001,29 @@
         <v>6093</v>
       </c>
       <c r="B56" s="146" t="s">
+        <v>777</v>
+      </c>
+      <c r="C56" s="147" t="s">
         <v>778</v>
       </c>
-      <c r="C56" s="147" t="s">
+      <c r="D56" s="148" t="s">
         <v>779</v>
-      </c>
-      <c r="D56" s="148" t="s">
-        <v>780</v>
       </c>
       <c r="E56" s="152">
         <v>46753</v>
       </c>
       <c r="F56" s="153" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G56" s="152">
         <v>43955</v>
       </c>
       <c r="H56" s="152"/>
       <c r="I56" s="153" t="s">
+        <v>781</v>
+      </c>
+      <c r="J56" s="153" t="s">
         <v>782</v>
-      </c>
-      <c r="J56" s="153" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17058,13 +17031,13 @@
         <v>6097</v>
       </c>
       <c r="B57" s="146" t="s">
+        <v>783</v>
+      </c>
+      <c r="C57" s="147" t="s">
         <v>784</v>
       </c>
-      <c r="C57" s="147" t="s">
+      <c r="D57" s="148" t="s">
         <v>785</v>
-      </c>
-      <c r="D57" s="148" t="s">
-        <v>786</v>
       </c>
       <c r="E57" s="152">
         <v>46023</v>
@@ -17077,10 +17050,10 @@
       </c>
       <c r="H57" s="152"/>
       <c r="I57" s="153" t="s">
+        <v>786</v>
+      </c>
+      <c r="J57" s="153" t="s">
         <v>787</v>
-      </c>
-      <c r="J57" s="153" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17088,13 +17061,13 @@
         <v>6099</v>
       </c>
       <c r="B58" s="146" t="s">
+        <v>788</v>
+      </c>
+      <c r="C58" s="147" t="s">
         <v>789</v>
       </c>
-      <c r="C58" s="147" t="s">
+      <c r="D58" s="148" t="s">
         <v>790</v>
-      </c>
-      <c r="D58" s="148" t="s">
-        <v>791</v>
       </c>
       <c r="E58" s="152">
         <v>45292</v>
@@ -17107,10 +17080,10 @@
       </c>
       <c r="H58" s="152"/>
       <c r="I58" s="153" t="s">
+        <v>791</v>
+      </c>
+      <c r="J58" s="153" t="s">
         <v>792</v>
-      </c>
-      <c r="J58" s="153" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17118,13 +17091,13 @@
         <v>6103</v>
       </c>
       <c r="B59" s="146" t="s">
+        <v>793</v>
+      </c>
+      <c r="C59" s="147" t="s">
         <v>794</v>
       </c>
-      <c r="C59" s="147" t="s">
+      <c r="D59" s="148" t="s">
         <v>795</v>
-      </c>
-      <c r="D59" s="148" t="s">
-        <v>796</v>
       </c>
       <c r="E59" s="152">
         <v>46388</v>
@@ -17137,10 +17110,10 @@
       </c>
       <c r="H59" s="152"/>
       <c r="I59" s="153" t="s">
+        <v>796</v>
+      </c>
+      <c r="J59" s="153" t="s">
         <v>797</v>
-      </c>
-      <c r="J59" s="153" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17148,13 +17121,13 @@
         <v>6106</v>
       </c>
       <c r="B60" s="150" t="s">
+        <v>798</v>
+      </c>
+      <c r="C60" s="147" t="s">
         <v>799</v>
       </c>
-      <c r="C60" s="147" t="s">
+      <c r="D60" s="148" t="s">
         <v>800</v>
-      </c>
-      <c r="D60" s="148" t="s">
-        <v>801</v>
       </c>
       <c r="E60" s="153"/>
       <c r="F60" s="153"/>
@@ -17163,10 +17136,10 @@
       </c>
       <c r="H60" s="152"/>
       <c r="I60" s="153" t="s">
+        <v>801</v>
+      </c>
+      <c r="J60" s="153" t="s">
         <v>802</v>
-      </c>
-      <c r="J60" s="153" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17174,13 +17147,13 @@
         <v>6107</v>
       </c>
       <c r="B61" s="146" t="s">
+        <v>803</v>
+      </c>
+      <c r="C61" s="147" t="s">
         <v>804</v>
       </c>
-      <c r="C61" s="147" t="s">
+      <c r="D61" s="148" t="s">
         <v>805</v>
-      </c>
-      <c r="D61" s="148" t="s">
-        <v>806</v>
       </c>
       <c r="E61" s="152">
         <v>46023</v>
@@ -17193,10 +17166,10 @@
       </c>
       <c r="H61" s="152"/>
       <c r="I61" s="153" t="s">
+        <v>806</v>
+      </c>
+      <c r="J61" s="153" t="s">
         <v>807</v>
-      </c>
-      <c r="J61" s="153" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17204,10 +17177,10 @@
         <v>6108</v>
       </c>
       <c r="B62" s="149" t="s">
+        <v>808</v>
+      </c>
+      <c r="C62" s="147" t="s">
         <v>809</v>
-      </c>
-      <c r="C62" s="147" t="s">
-        <v>810</v>
       </c>
       <c r="D62" s="148"/>
       <c r="E62" s="153"/>
@@ -17217,10 +17190,10 @@
       </c>
       <c r="H62" s="152"/>
       <c r="I62" s="153" t="s">
+        <v>810</v>
+      </c>
+      <c r="J62" s="153" t="s">
         <v>811</v>
-      </c>
-      <c r="J62" s="153" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17228,10 +17201,10 @@
         <v>6110</v>
       </c>
       <c r="B63" s="149" t="s">
+        <v>812</v>
+      </c>
+      <c r="C63" s="147" t="s">
         <v>813</v>
-      </c>
-      <c r="C63" s="147" t="s">
-        <v>814</v>
       </c>
       <c r="D63" s="148"/>
       <c r="E63" s="153"/>
@@ -17241,10 +17214,10 @@
       </c>
       <c r="H63" s="152"/>
       <c r="I63" s="153" t="s">
+        <v>814</v>
+      </c>
+      <c r="J63" s="153" t="s">
         <v>815</v>
-      </c>
-      <c r="J63" s="153" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17252,13 +17225,13 @@
         <v>6111</v>
       </c>
       <c r="B64" s="146" t="s">
+        <v>816</v>
+      </c>
+      <c r="C64" s="147" t="s">
         <v>817</v>
       </c>
-      <c r="C64" s="147" t="s">
-        <v>818</v>
-      </c>
       <c r="D64" s="148" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E64" s="152">
         <v>45292</v>
@@ -17271,10 +17244,10 @@
       </c>
       <c r="H64" s="152"/>
       <c r="I64" s="153" t="s">
+        <v>818</v>
+      </c>
+      <c r="J64" s="153" t="s">
         <v>819</v>
-      </c>
-      <c r="J64" s="153" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17282,13 +17255,13 @@
         <v>6112</v>
       </c>
       <c r="B65" s="146" t="s">
+        <v>820</v>
+      </c>
+      <c r="C65" s="147" t="s">
         <v>821</v>
       </c>
-      <c r="C65" s="147" t="s">
+      <c r="D65" s="148" t="s">
         <v>822</v>
-      </c>
-      <c r="D65" s="148" t="s">
-        <v>823</v>
       </c>
       <c r="E65" s="152">
         <v>45292</v>
@@ -17301,10 +17274,10 @@
       </c>
       <c r="H65" s="152"/>
       <c r="I65" s="153" t="s">
+        <v>823</v>
+      </c>
+      <c r="J65" s="153" t="s">
         <v>824</v>
-      </c>
-      <c r="J65" s="153" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17312,10 +17285,10 @@
         <v>6116</v>
       </c>
       <c r="B66" s="149" t="s">
+        <v>825</v>
+      </c>
+      <c r="C66" s="147" t="s">
         <v>826</v>
-      </c>
-      <c r="C66" s="147" t="s">
-        <v>827</v>
       </c>
       <c r="D66" s="148"/>
       <c r="E66" s="153"/>
@@ -17325,10 +17298,10 @@
       </c>
       <c r="H66" s="152"/>
       <c r="I66" s="153" t="s">
+        <v>827</v>
+      </c>
+      <c r="J66" s="153" t="s">
         <v>828</v>
-      </c>
-      <c r="J66" s="153" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17336,13 +17309,13 @@
         <v>6117</v>
       </c>
       <c r="B67" s="146" t="s">
+        <v>829</v>
+      </c>
+      <c r="C67" s="147" t="s">
         <v>830</v>
       </c>
-      <c r="C67" s="147" t="s">
+      <c r="D67" s="148" t="s">
         <v>831</v>
-      </c>
-      <c r="D67" s="148" t="s">
-        <v>832</v>
       </c>
       <c r="E67" s="152">
         <v>44562</v>
@@ -17355,10 +17328,10 @@
       </c>
       <c r="H67" s="152"/>
       <c r="I67" s="153" t="s">
+        <v>832</v>
+      </c>
+      <c r="J67" s="153" t="s">
         <v>833</v>
-      </c>
-      <c r="J67" s="153" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17366,13 +17339,13 @@
         <v>6118</v>
       </c>
       <c r="B68" s="146" t="s">
+        <v>834</v>
+      </c>
+      <c r="C68" s="147" t="s">
         <v>835</v>
       </c>
-      <c r="C68" s="147" t="s">
+      <c r="D68" s="148" t="s">
         <v>836</v>
-      </c>
-      <c r="D68" s="148" t="s">
-        <v>837</v>
       </c>
       <c r="E68" s="152">
         <v>46753</v>
@@ -17385,10 +17358,10 @@
       </c>
       <c r="H68" s="152"/>
       <c r="I68" s="153" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J68" s="153" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17396,13 +17369,13 @@
         <v>6119</v>
       </c>
       <c r="B69" s="146" t="s">
+        <v>838</v>
+      </c>
+      <c r="C69" s="147" t="s">
         <v>839</v>
       </c>
-      <c r="C69" s="147" t="s">
+      <c r="D69" s="148" t="s">
         <v>840</v>
-      </c>
-      <c r="D69" s="148" t="s">
-        <v>841</v>
       </c>
       <c r="E69" s="152">
         <v>46388</v>
@@ -17415,10 +17388,10 @@
       </c>
       <c r="H69" s="152"/>
       <c r="I69" s="153" t="s">
+        <v>841</v>
+      </c>
+      <c r="J69" s="153" t="s">
         <v>842</v>
-      </c>
-      <c r="J69" s="153" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17426,13 +17399,13 @@
         <v>6120</v>
       </c>
       <c r="B70" s="146" t="s">
+        <v>843</v>
+      </c>
+      <c r="C70" s="147" t="s">
         <v>844</v>
       </c>
-      <c r="C70" s="147" t="s">
+      <c r="D70" s="148" t="s">
         <v>845</v>
-      </c>
-      <c r="D70" s="148" t="s">
-        <v>846</v>
       </c>
       <c r="E70" s="152">
         <v>44562</v>
@@ -17445,10 +17418,10 @@
       </c>
       <c r="H70" s="152"/>
       <c r="I70" s="153" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J70" s="153" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17456,13 +17429,13 @@
         <v>6125</v>
       </c>
       <c r="B71" s="146" t="s">
+        <v>847</v>
+      </c>
+      <c r="C71" s="147" t="s">
         <v>848</v>
       </c>
-      <c r="C71" s="147" t="s">
+      <c r="D71" s="148" t="s">
         <v>849</v>
-      </c>
-      <c r="D71" s="148" t="s">
-        <v>850</v>
       </c>
       <c r="E71" s="152">
         <v>47119</v>
@@ -17475,10 +17448,10 @@
       </c>
       <c r="H71" s="152"/>
       <c r="I71" s="153" t="s">
+        <v>850</v>
+      </c>
+      <c r="J71" s="153" t="s">
         <v>851</v>
-      </c>
-      <c r="J71" s="153" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17486,13 +17459,13 @@
         <v>6126</v>
       </c>
       <c r="B72" s="146" t="s">
+        <v>852</v>
+      </c>
+      <c r="C72" s="147" t="s">
         <v>853</v>
       </c>
-      <c r="C72" s="147" t="s">
+      <c r="D72" s="148" t="s">
         <v>854</v>
-      </c>
-      <c r="D72" s="148" t="s">
-        <v>855</v>
       </c>
       <c r="E72" s="152">
         <v>44927</v>
@@ -17505,10 +17478,10 @@
       </c>
       <c r="H72" s="152"/>
       <c r="I72" s="153" t="s">
+        <v>855</v>
+      </c>
+      <c r="J72" s="153" t="s">
         <v>856</v>
-      </c>
-      <c r="J72" s="153" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17516,13 +17489,13 @@
         <v>6128</v>
       </c>
       <c r="B73" s="146" t="s">
+        <v>857</v>
+      </c>
+      <c r="C73" s="147" t="s">
         <v>858</v>
       </c>
-      <c r="C73" s="147" t="s">
+      <c r="D73" s="148" t="s">
         <v>859</v>
-      </c>
-      <c r="D73" s="148" t="s">
-        <v>860</v>
       </c>
       <c r="E73" s="152">
         <v>46753</v>
@@ -17535,10 +17508,10 @@
       </c>
       <c r="H73" s="152"/>
       <c r="I73" s="153" t="s">
+        <v>860</v>
+      </c>
+      <c r="J73" s="153" t="s">
         <v>861</v>
-      </c>
-      <c r="J73" s="153" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17546,10 +17519,10 @@
         <v>6130</v>
       </c>
       <c r="B74" s="149" t="s">
+        <v>862</v>
+      </c>
+      <c r="C74" s="147" t="s">
         <v>863</v>
-      </c>
-      <c r="C74" s="147" t="s">
-        <v>864</v>
       </c>
       <c r="D74" s="148"/>
       <c r="E74" s="153"/>
@@ -17559,10 +17532,10 @@
       </c>
       <c r="H74" s="152"/>
       <c r="I74" s="153" t="s">
+        <v>864</v>
+      </c>
+      <c r="J74" s="153" t="s">
         <v>865</v>
-      </c>
-      <c r="J74" s="153" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17570,13 +17543,13 @@
         <v>6132</v>
       </c>
       <c r="B75" s="146" t="s">
+        <v>866</v>
+      </c>
+      <c r="C75" s="147" t="s">
         <v>867</v>
       </c>
-      <c r="C75" s="147" t="s">
+      <c r="D75" s="148" t="s">
         <v>868</v>
-      </c>
-      <c r="D75" s="148" t="s">
-        <v>869</v>
       </c>
       <c r="E75" s="152">
         <v>44927</v>
@@ -17589,10 +17562,10 @@
       </c>
       <c r="H75" s="152"/>
       <c r="I75" s="153" t="s">
+        <v>869</v>
+      </c>
+      <c r="J75" s="153" t="s">
         <v>870</v>
-      </c>
-      <c r="J75" s="153" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17600,13 +17573,13 @@
         <v>6133</v>
       </c>
       <c r="B76" s="146" t="s">
+        <v>871</v>
+      </c>
+      <c r="C76" s="147" t="s">
         <v>872</v>
       </c>
-      <c r="C76" s="147" t="s">
+      <c r="D76" s="148" t="s">
         <v>873</v>
-      </c>
-      <c r="D76" s="148" t="s">
-        <v>874</v>
       </c>
       <c r="E76" s="152">
         <v>45658</v>
@@ -17619,10 +17592,10 @@
       </c>
       <c r="H76" s="152"/>
       <c r="I76" s="153" t="s">
+        <v>874</v>
+      </c>
+      <c r="J76" s="153" t="s">
         <v>875</v>
-      </c>
-      <c r="J76" s="153" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17630,13 +17603,13 @@
         <v>6135</v>
       </c>
       <c r="B77" s="146" t="s">
+        <v>876</v>
+      </c>
+      <c r="C77" s="147" t="s">
         <v>877</v>
       </c>
-      <c r="C77" s="147" t="s">
+      <c r="D77" s="148" t="s">
         <v>878</v>
-      </c>
-      <c r="D77" s="148" t="s">
-        <v>879</v>
       </c>
       <c r="E77" s="152">
         <v>45658</v>
@@ -17649,10 +17622,10 @@
       </c>
       <c r="H77" s="152"/>
       <c r="I77" s="153" t="s">
+        <v>879</v>
+      </c>
+      <c r="J77" s="153" t="s">
         <v>880</v>
-      </c>
-      <c r="J77" s="153" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17660,13 +17633,13 @@
         <v>6138</v>
       </c>
       <c r="B78" s="149" t="s">
+        <v>881</v>
+      </c>
+      <c r="C78" s="147" t="s">
         <v>882</v>
       </c>
-      <c r="C78" s="147" t="s">
+      <c r="D78" s="148" t="s">
         <v>883</v>
-      </c>
-      <c r="D78" s="148" t="s">
-        <v>884</v>
       </c>
       <c r="E78" s="153"/>
       <c r="F78" s="153"/>
@@ -17675,10 +17648,10 @@
       </c>
       <c r="H78" s="152"/>
       <c r="I78" s="153" t="s">
+        <v>884</v>
+      </c>
+      <c r="J78" s="153" t="s">
         <v>885</v>
-      </c>
-      <c r="J78" s="153" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17686,13 +17659,13 @@
         <v>6139</v>
       </c>
       <c r="B79" s="146" t="s">
+        <v>886</v>
+      </c>
+      <c r="C79" s="147" t="s">
         <v>887</v>
       </c>
-      <c r="C79" s="147" t="s">
+      <c r="D79" s="148" t="s">
         <v>888</v>
-      </c>
-      <c r="D79" s="148" t="s">
-        <v>889</v>
       </c>
       <c r="E79" s="152">
         <v>45658</v>
@@ -17705,10 +17678,10 @@
       </c>
       <c r="H79" s="152"/>
       <c r="I79" s="153" t="s">
+        <v>889</v>
+      </c>
+      <c r="J79" s="153" t="s">
         <v>890</v>
-      </c>
-      <c r="J79" s="153" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17716,13 +17689,13 @@
         <v>6140</v>
       </c>
       <c r="B80" s="146" t="s">
+        <v>891</v>
+      </c>
+      <c r="C80" s="147" t="s">
         <v>892</v>
       </c>
-      <c r="C80" s="147" t="s">
+      <c r="D80" s="148" t="s">
         <v>893</v>
-      </c>
-      <c r="D80" s="148" t="s">
-        <v>894</v>
       </c>
       <c r="E80" s="152">
         <v>45292</v>
@@ -17735,10 +17708,10 @@
       </c>
       <c r="H80" s="152"/>
       <c r="I80" s="153" t="s">
+        <v>894</v>
+      </c>
+      <c r="J80" s="153" t="s">
         <v>895</v>
-      </c>
-      <c r="J80" s="153" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17746,10 +17719,10 @@
         <v>6142</v>
       </c>
       <c r="B81" s="149" t="s">
+        <v>896</v>
+      </c>
+      <c r="C81" s="147" t="s">
         <v>897</v>
-      </c>
-      <c r="C81" s="147" t="s">
-        <v>898</v>
       </c>
       <c r="D81" s="148"/>
       <c r="E81" s="153"/>
@@ -17759,10 +17732,10 @@
       </c>
       <c r="H81" s="152"/>
       <c r="I81" s="153" t="s">
+        <v>898</v>
+      </c>
+      <c r="J81" s="153" t="s">
         <v>899</v>
-      </c>
-      <c r="J81" s="153" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17770,10 +17743,10 @@
         <v>6143</v>
       </c>
       <c r="B82" s="149" t="s">
+        <v>900</v>
+      </c>
+      <c r="C82" s="147" t="s">
         <v>901</v>
-      </c>
-      <c r="C82" s="147" t="s">
-        <v>902</v>
       </c>
       <c r="D82" s="148"/>
       <c r="E82" s="153"/>
@@ -17783,10 +17756,10 @@
       </c>
       <c r="H82" s="152"/>
       <c r="I82" s="153" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J82" s="153" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17794,10 +17767,10 @@
         <v>6144</v>
       </c>
       <c r="B83" s="149" t="s">
+        <v>903</v>
+      </c>
+      <c r="C83" s="147" t="s">
         <v>904</v>
-      </c>
-      <c r="C83" s="147" t="s">
-        <v>905</v>
       </c>
       <c r="D83" s="148"/>
       <c r="E83" s="153"/>
@@ -17807,10 +17780,10 @@
       </c>
       <c r="H83" s="152"/>
       <c r="I83" s="153" t="s">
+        <v>905</v>
+      </c>
+      <c r="J83" s="153" t="s">
         <v>906</v>
-      </c>
-      <c r="J83" s="153" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17818,10 +17791,10 @@
         <v>6145</v>
       </c>
       <c r="B84" s="149" t="s">
+        <v>907</v>
+      </c>
+      <c r="C84" s="147" t="s">
         <v>908</v>
-      </c>
-      <c r="C84" s="147" t="s">
-        <v>909</v>
       </c>
       <c r="D84" s="148"/>
       <c r="E84" s="153"/>
@@ -17831,10 +17804,10 @@
       </c>
       <c r="H84" s="152"/>
       <c r="I84" s="153" t="s">
+        <v>909</v>
+      </c>
+      <c r="J84" s="153" t="s">
         <v>910</v>
-      </c>
-      <c r="J84" s="153" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17842,13 +17815,13 @@
         <v>6146</v>
       </c>
       <c r="B85" s="146" t="s">
+        <v>911</v>
+      </c>
+      <c r="C85" s="147" t="s">
         <v>912</v>
       </c>
-      <c r="C85" s="147" t="s">
+      <c r="D85" s="148" t="s">
         <v>913</v>
-      </c>
-      <c r="D85" s="148" t="s">
-        <v>914</v>
       </c>
       <c r="E85" s="152">
         <v>47119</v>
@@ -17861,10 +17834,10 @@
       </c>
       <c r="H85" s="152"/>
       <c r="I85" s="153" t="s">
+        <v>914</v>
+      </c>
+      <c r="J85" s="153" t="s">
         <v>915</v>
-      </c>
-      <c r="J85" s="153" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17872,13 +17845,13 @@
         <v>6147</v>
       </c>
       <c r="B86" s="146" t="s">
+        <v>916</v>
+      </c>
+      <c r="C86" s="147" t="s">
         <v>917</v>
       </c>
-      <c r="C86" s="147" t="s">
+      <c r="D86" s="148" t="s">
         <v>918</v>
-      </c>
-      <c r="D86" s="148" t="s">
-        <v>919</v>
       </c>
       <c r="E86" s="152">
         <v>44562</v>
@@ -17891,10 +17864,10 @@
       </c>
       <c r="H86" s="152"/>
       <c r="I86" s="153" t="s">
+        <v>919</v>
+      </c>
+      <c r="J86" s="153" t="s">
         <v>920</v>
-      </c>
-      <c r="J86" s="153" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17902,13 +17875,13 @@
         <v>6149</v>
       </c>
       <c r="B87" s="146" t="s">
+        <v>921</v>
+      </c>
+      <c r="C87" s="147" t="s">
         <v>922</v>
       </c>
-      <c r="C87" s="147" t="s">
+      <c r="D87" s="148" t="s">
         <v>923</v>
-      </c>
-      <c r="D87" s="148" t="s">
-        <v>924</v>
       </c>
       <c r="E87" s="152">
         <v>46388</v>
@@ -17921,10 +17894,10 @@
       </c>
       <c r="H87" s="152"/>
       <c r="I87" s="153" t="s">
+        <v>924</v>
+      </c>
+      <c r="J87" s="153" t="s">
         <v>925</v>
-      </c>
-      <c r="J87" s="153" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17932,13 +17905,13 @@
         <v>6150</v>
       </c>
       <c r="B88" s="146" t="s">
+        <v>926</v>
+      </c>
+      <c r="C88" s="147" t="s">
         <v>927</v>
       </c>
-      <c r="C88" s="147" t="s">
+      <c r="D88" s="148" t="s">
         <v>928</v>
-      </c>
-      <c r="D88" s="148" t="s">
-        <v>929</v>
       </c>
       <c r="E88" s="152">
         <v>45292</v>
@@ -17951,10 +17924,10 @@
       </c>
       <c r="H88" s="152"/>
       <c r="I88" s="153" t="s">
+        <v>929</v>
+      </c>
+      <c r="J88" s="153" t="s">
         <v>930</v>
-      </c>
-      <c r="J88" s="153" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17962,13 +17935,13 @@
         <v>6152</v>
       </c>
       <c r="B89" s="146" t="s">
+        <v>931</v>
+      </c>
+      <c r="C89" s="147" t="s">
         <v>932</v>
       </c>
-      <c r="C89" s="147" t="s">
+      <c r="D89" s="148" t="s">
         <v>933</v>
-      </c>
-      <c r="D89" s="148" t="s">
-        <v>934</v>
       </c>
       <c r="E89" s="152">
         <v>44562</v>
@@ -17981,10 +17954,10 @@
       </c>
       <c r="H89" s="152"/>
       <c r="I89" s="153" t="s">
+        <v>934</v>
+      </c>
+      <c r="J89" s="153" t="s">
         <v>935</v>
-      </c>
-      <c r="J89" s="153" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -17992,13 +17965,13 @@
         <v>6153</v>
       </c>
       <c r="B90" s="149" t="s">
+        <v>936</v>
+      </c>
+      <c r="C90" s="147" t="s">
         <v>937</v>
       </c>
-      <c r="C90" s="147" t="s">
+      <c r="D90" s="148" t="s">
         <v>938</v>
-      </c>
-      <c r="D90" s="148" t="s">
-        <v>939</v>
       </c>
       <c r="E90" s="152">
         <v>44562</v>
@@ -18011,10 +17984,10 @@
       </c>
       <c r="H90" s="152"/>
       <c r="I90" s="153" t="s">
+        <v>939</v>
+      </c>
+      <c r="J90" s="153" t="s">
         <v>940</v>
-      </c>
-      <c r="J90" s="153" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18022,13 +17995,13 @@
         <v>6155</v>
       </c>
       <c r="B91" s="146" t="s">
+        <v>941</v>
+      </c>
+      <c r="C91" s="147" t="s">
         <v>942</v>
       </c>
-      <c r="C91" s="147" t="s">
+      <c r="D91" s="148" t="s">
         <v>943</v>
-      </c>
-      <c r="D91" s="148" t="s">
-        <v>944</v>
       </c>
       <c r="E91" s="152">
         <v>46023</v>
@@ -18044,7 +18017,7 @@
         <v>1077028058</v>
       </c>
       <c r="J91" s="153" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18052,10 +18025,10 @@
         <v>6156</v>
       </c>
       <c r="B92" s="149" t="s">
+        <v>945</v>
+      </c>
+      <c r="C92" s="147" t="s">
         <v>946</v>
-      </c>
-      <c r="C92" s="147" t="s">
-        <v>947</v>
       </c>
       <c r="D92" s="148"/>
       <c r="E92" s="153"/>
@@ -18065,10 +18038,10 @@
       </c>
       <c r="H92" s="152"/>
       <c r="I92" s="153" t="s">
+        <v>947</v>
+      </c>
+      <c r="J92" s="153" t="s">
         <v>948</v>
-      </c>
-      <c r="J92" s="153" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18076,13 +18049,13 @@
         <v>6157</v>
       </c>
       <c r="B93" s="146" t="s">
+        <v>949</v>
+      </c>
+      <c r="C93" s="147" t="s">
         <v>950</v>
       </c>
-      <c r="C93" s="147" t="s">
+      <c r="D93" s="148" t="s">
         <v>951</v>
-      </c>
-      <c r="D93" s="148" t="s">
-        <v>952</v>
       </c>
       <c r="E93" s="152">
         <v>46753</v>
@@ -18095,10 +18068,10 @@
       </c>
       <c r="H93" s="152"/>
       <c r="I93" s="153" t="s">
+        <v>952</v>
+      </c>
+      <c r="J93" s="153" t="s">
         <v>953</v>
-      </c>
-      <c r="J93" s="153" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18106,13 +18079,13 @@
         <v>6158</v>
       </c>
       <c r="B94" s="146" t="s">
+        <v>954</v>
+      </c>
+      <c r="C94" s="147" t="s">
         <v>955</v>
       </c>
-      <c r="C94" s="147" t="s">
+      <c r="D94" s="148" t="s">
         <v>956</v>
-      </c>
-      <c r="D94" s="148" t="s">
-        <v>957</v>
       </c>
       <c r="E94" s="152">
         <v>44562</v>
@@ -18125,10 +18098,10 @@
       </c>
       <c r="H94" s="152"/>
       <c r="I94" s="153" t="s">
+        <v>957</v>
+      </c>
+      <c r="J94" s="153" t="s">
         <v>958</v>
-      </c>
-      <c r="J94" s="153" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18136,13 +18109,13 @@
         <v>6160</v>
       </c>
       <c r="B95" s="146" t="s">
+        <v>959</v>
+      </c>
+      <c r="C95" s="147" t="s">
         <v>960</v>
       </c>
-      <c r="C95" s="147" t="s">
-        <v>961</v>
-      </c>
       <c r="D95" s="148" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E95" s="152">
         <v>45292</v>
@@ -18155,10 +18128,10 @@
       </c>
       <c r="H95" s="152"/>
       <c r="I95" s="153" t="s">
+        <v>961</v>
+      </c>
+      <c r="J95" s="153" t="s">
         <v>962</v>
-      </c>
-      <c r="J95" s="153" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18166,10 +18139,10 @@
         <v>6161</v>
       </c>
       <c r="B96" s="149" t="s">
+        <v>963</v>
+      </c>
+      <c r="C96" s="147" t="s">
         <v>964</v>
-      </c>
-      <c r="C96" s="147" t="s">
-        <v>965</v>
       </c>
       <c r="D96" s="148"/>
       <c r="E96" s="153"/>
@@ -18179,10 +18152,10 @@
       </c>
       <c r="H96" s="152"/>
       <c r="I96" s="153" t="s">
+        <v>965</v>
+      </c>
+      <c r="J96" s="153" t="s">
         <v>966</v>
-      </c>
-      <c r="J96" s="153" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18190,13 +18163,13 @@
         <v>6163</v>
       </c>
       <c r="B97" s="146" t="s">
+        <v>967</v>
+      </c>
+      <c r="C97" s="147" t="s">
         <v>968</v>
       </c>
-      <c r="C97" s="147" t="s">
-        <v>969</v>
-      </c>
       <c r="D97" s="148" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E97" s="152">
         <v>45658</v>
@@ -18209,10 +18182,10 @@
       </c>
       <c r="H97" s="152"/>
       <c r="I97" s="153" t="s">
+        <v>969</v>
+      </c>
+      <c r="J97" s="153" t="s">
         <v>970</v>
-      </c>
-      <c r="J97" s="153" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18220,13 +18193,13 @@
         <v>6164</v>
       </c>
       <c r="B98" s="149" t="s">
+        <v>971</v>
+      </c>
+      <c r="C98" s="147" t="s">
         <v>972</v>
       </c>
-      <c r="C98" s="147" t="s">
+      <c r="D98" s="148" t="s">
         <v>973</v>
-      </c>
-      <c r="D98" s="148" t="s">
-        <v>974</v>
       </c>
       <c r="E98" s="153"/>
       <c r="F98" s="153"/>
@@ -18235,10 +18208,10 @@
       </c>
       <c r="H98" s="152"/>
       <c r="I98" s="153" t="s">
+        <v>974</v>
+      </c>
+      <c r="J98" s="153" t="s">
         <v>975</v>
-      </c>
-      <c r="J98" s="153" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18246,13 +18219,13 @@
         <v>6165</v>
       </c>
       <c r="B99" s="146" t="s">
+        <v>976</v>
+      </c>
+      <c r="C99" s="147" t="s">
         <v>977</v>
       </c>
-      <c r="C99" s="147" t="s">
+      <c r="D99" s="148" t="s">
         <v>978</v>
-      </c>
-      <c r="D99" s="148" t="s">
-        <v>979</v>
       </c>
       <c r="E99" s="152">
         <v>47849</v>
@@ -18265,10 +18238,10 @@
       </c>
       <c r="H99" s="152"/>
       <c r="I99" s="153" t="s">
+        <v>979</v>
+      </c>
+      <c r="J99" s="153" t="s">
         <v>980</v>
-      </c>
-      <c r="J99" s="153" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18276,13 +18249,13 @@
         <v>6166</v>
       </c>
       <c r="B100" s="146" t="s">
+        <v>981</v>
+      </c>
+      <c r="C100" s="147" t="s">
         <v>982</v>
       </c>
-      <c r="C100" s="147" t="s">
+      <c r="D100" s="148" t="s">
         <v>983</v>
-      </c>
-      <c r="D100" s="148" t="s">
-        <v>984</v>
       </c>
       <c r="E100" s="152">
         <v>46023</v>
@@ -18295,10 +18268,10 @@
       </c>
       <c r="H100" s="152"/>
       <c r="I100" s="153" t="s">
+        <v>984</v>
+      </c>
+      <c r="J100" s="153" t="s">
         <v>985</v>
-      </c>
-      <c r="J100" s="153" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18306,10 +18279,10 @@
         <v>6167</v>
       </c>
       <c r="B101" s="149" t="s">
+        <v>986</v>
+      </c>
+      <c r="C101" s="147" t="s">
         <v>987</v>
-      </c>
-      <c r="C101" s="147" t="s">
-        <v>988</v>
       </c>
       <c r="D101" s="148"/>
       <c r="E101" s="153"/>
@@ -18319,10 +18292,10 @@
       </c>
       <c r="H101" s="152"/>
       <c r="I101" s="153" t="s">
+        <v>988</v>
+      </c>
+      <c r="J101" s="153" t="s">
         <v>989</v>
-      </c>
-      <c r="J101" s="153" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18330,10 +18303,10 @@
         <v>6168</v>
       </c>
       <c r="B102" s="149" t="s">
+        <v>990</v>
+      </c>
+      <c r="C102" s="147" t="s">
         <v>991</v>
-      </c>
-      <c r="C102" s="147" t="s">
-        <v>992</v>
       </c>
       <c r="D102" s="148"/>
       <c r="E102" s="153"/>
@@ -18343,10 +18316,10 @@
       </c>
       <c r="H102" s="152"/>
       <c r="I102" s="153" t="s">
+        <v>992</v>
+      </c>
+      <c r="J102" s="153" t="s">
         <v>993</v>
-      </c>
-      <c r="J102" s="153" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18354,13 +18327,13 @@
         <v>6169</v>
       </c>
       <c r="B103" s="146" t="s">
+        <v>994</v>
+      </c>
+      <c r="C103" s="147" t="s">
         <v>995</v>
       </c>
-      <c r="C103" s="147" t="s">
+      <c r="D103" s="148" t="s">
         <v>996</v>
-      </c>
-      <c r="D103" s="148" t="s">
-        <v>997</v>
       </c>
       <c r="E103" s="152">
         <v>46023</v>
@@ -18373,10 +18346,10 @@
       </c>
       <c r="H103" s="152"/>
       <c r="I103" s="153" t="s">
+        <v>997</v>
+      </c>
+      <c r="J103" s="153" t="s">
         <v>998</v>
-      </c>
-      <c r="J103" s="153" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18384,13 +18357,13 @@
         <v>6170</v>
       </c>
       <c r="B104" s="146" t="s">
+        <v>999</v>
+      </c>
+      <c r="C104" s="147" t="s">
         <v>1000</v>
       </c>
-      <c r="C104" s="147" t="s">
+      <c r="D104" s="148" t="s">
         <v>1001</v>
-      </c>
-      <c r="D104" s="148" t="s">
-        <v>1002</v>
       </c>
       <c r="E104" s="152">
         <v>44927</v>
@@ -18403,10 +18376,10 @@
       </c>
       <c r="H104" s="152"/>
       <c r="I104" s="153" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J104" s="153" t="s">
         <v>1003</v>
-      </c>
-      <c r="J104" s="153" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18414,13 +18387,13 @@
         <v>6171</v>
       </c>
       <c r="B105" s="146" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C105" s="147" t="s">
         <v>1005</v>
       </c>
-      <c r="C105" s="147" t="s">
+      <c r="D105" s="148" t="s">
         <v>1006</v>
-      </c>
-      <c r="D105" s="148" t="s">
-        <v>1007</v>
       </c>
       <c r="E105" s="152">
         <v>45292</v>
@@ -18433,10 +18406,10 @@
       </c>
       <c r="H105" s="152"/>
       <c r="I105" s="153" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J105" s="153" t="s">
         <v>1008</v>
-      </c>
-      <c r="J105" s="153" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18444,13 +18417,13 @@
         <v>6172</v>
       </c>
       <c r="B106" s="146" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C106" s="147" t="s">
         <v>1010</v>
       </c>
-      <c r="C106" s="147" t="s">
-        <v>1011</v>
-      </c>
       <c r="D106" s="148" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E106" s="152">
         <v>46388</v>
@@ -18463,10 +18436,10 @@
       </c>
       <c r="H106" s="152"/>
       <c r="I106" s="153" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J106" s="153" t="s">
         <v>1012</v>
-      </c>
-      <c r="J106" s="153" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18474,13 +18447,13 @@
         <v>6173</v>
       </c>
       <c r="B107" s="146" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C107" s="147" t="s">
         <v>1014</v>
       </c>
-      <c r="C107" s="147" t="s">
+      <c r="D107" s="148" t="s">
         <v>1015</v>
-      </c>
-      <c r="D107" s="148" t="s">
-        <v>1016</v>
       </c>
       <c r="E107" s="152">
         <v>45292</v>
@@ -18493,10 +18466,10 @@
       </c>
       <c r="H107" s="152"/>
       <c r="I107" s="153" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J107" s="153" t="s">
         <v>1017</v>
-      </c>
-      <c r="J107" s="153" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18504,10 +18477,10 @@
         <v>6174</v>
       </c>
       <c r="B108" s="149" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C108" s="147" t="s">
         <v>1019</v>
-      </c>
-      <c r="C108" s="147" t="s">
-        <v>1020</v>
       </c>
       <c r="D108" s="148"/>
       <c r="E108" s="153"/>
@@ -18517,10 +18490,10 @@
       </c>
       <c r="H108" s="152"/>
       <c r="I108" s="153" t="s">
+        <v>1020</v>
+      </c>
+      <c r="J108" s="153" t="s">
         <v>1021</v>
-      </c>
-      <c r="J108" s="153" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18528,10 +18501,10 @@
         <v>6175</v>
       </c>
       <c r="B109" s="149" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C109" s="147" t="s">
         <v>1023</v>
-      </c>
-      <c r="C109" s="147" t="s">
-        <v>1024</v>
       </c>
       <c r="D109" s="148"/>
       <c r="E109" s="153"/>
@@ -18541,10 +18514,10 @@
       </c>
       <c r="H109" s="152"/>
       <c r="I109" s="153" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J109" s="153" t="s">
         <v>1025</v>
-      </c>
-      <c r="J109" s="153" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18552,10 +18525,10 @@
         <v>6176</v>
       </c>
       <c r="B110" s="149" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C110" s="147" t="s">
         <v>1027</v>
-      </c>
-      <c r="C110" s="147" t="s">
-        <v>1028</v>
       </c>
       <c r="D110" s="148"/>
       <c r="E110" s="153"/>
@@ -18565,10 +18538,10 @@
       </c>
       <c r="H110" s="152"/>
       <c r="I110" s="153" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J110" s="153" t="s">
         <v>1029</v>
-      </c>
-      <c r="J110" s="153" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18576,13 +18549,13 @@
         <v>6177</v>
       </c>
       <c r="B111" s="146" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C111" s="147" t="s">
         <v>1031</v>
       </c>
-      <c r="C111" s="147" t="s">
-        <v>1032</v>
-      </c>
       <c r="D111" s="148" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E111" s="152">
         <v>45292</v>
@@ -18595,10 +18568,10 @@
       </c>
       <c r="H111" s="152"/>
       <c r="I111" s="153" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J111" s="153" t="s">
         <v>1033</v>
-      </c>
-      <c r="J111" s="153" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18606,13 +18579,13 @@
         <v>6178</v>
       </c>
       <c r="B112" s="146" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C112" s="147" t="s">
         <v>1035</v>
       </c>
-      <c r="C112" s="147" t="s">
+      <c r="D112" s="148" t="s">
         <v>1036</v>
-      </c>
-      <c r="D112" s="148" t="s">
-        <v>1037</v>
       </c>
       <c r="E112" s="152">
         <v>45292</v>
@@ -18625,10 +18598,10 @@
       </c>
       <c r="H112" s="152"/>
       <c r="I112" s="153" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J112" s="153" t="s">
         <v>1038</v>
-      </c>
-      <c r="J112" s="153" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18636,10 +18609,10 @@
         <v>6179</v>
       </c>
       <c r="B113" s="149" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C113" s="147" t="s">
         <v>1040</v>
-      </c>
-      <c r="C113" s="147" t="s">
-        <v>1041</v>
       </c>
       <c r="D113" s="148"/>
       <c r="E113" s="153"/>
@@ -18649,10 +18622,10 @@
       </c>
       <c r="H113" s="152"/>
       <c r="I113" s="153" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J113" s="153" t="s">
         <v>1042</v>
-      </c>
-      <c r="J113" s="153" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18660,10 +18633,10 @@
         <v>6180</v>
       </c>
       <c r="B114" s="149" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C114" s="147" t="s">
         <v>1044</v>
-      </c>
-      <c r="C114" s="147" t="s">
-        <v>1045</v>
       </c>
       <c r="D114" s="148"/>
       <c r="E114" s="153"/>
@@ -18673,10 +18646,10 @@
       </c>
       <c r="H114" s="152"/>
       <c r="I114" s="153" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J114" s="153" t="s">
         <v>1046</v>
-      </c>
-      <c r="J114" s="153" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18684,10 +18657,10 @@
         <v>6181</v>
       </c>
       <c r="B115" s="149" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C115" s="147" t="s">
         <v>1048</v>
-      </c>
-      <c r="C115" s="147" t="s">
-        <v>1049</v>
       </c>
       <c r="D115" s="148"/>
       <c r="E115" s="153"/>
@@ -18697,10 +18670,10 @@
       </c>
       <c r="H115" s="152"/>
       <c r="I115" s="153" t="s">
+        <v>1049</v>
+      </c>
+      <c r="J115" s="153" t="s">
         <v>1050</v>
-      </c>
-      <c r="J115" s="153" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18708,13 +18681,13 @@
         <v>6182</v>
       </c>
       <c r="B116" s="146" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C116" s="147" t="s">
         <v>1052</v>
       </c>
-      <c r="C116" s="147" t="s">
+      <c r="D116" s="148" t="s">
         <v>1053</v>
-      </c>
-      <c r="D116" s="148" t="s">
-        <v>1054</v>
       </c>
       <c r="E116" s="152">
         <v>45658</v>
@@ -18727,10 +18700,10 @@
       </c>
       <c r="H116" s="152"/>
       <c r="I116" s="153" t="s">
+        <v>1054</v>
+      </c>
+      <c r="J116" s="153" t="s">
         <v>1055</v>
-      </c>
-      <c r="J116" s="153" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18738,10 +18711,10 @@
         <v>6183</v>
       </c>
       <c r="B117" s="149" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C117" s="147" t="s">
         <v>1057</v>
-      </c>
-      <c r="C117" s="147" t="s">
-        <v>1058</v>
       </c>
       <c r="D117" s="148"/>
       <c r="E117" s="153"/>
@@ -18751,10 +18724,10 @@
       </c>
       <c r="H117" s="152"/>
       <c r="I117" s="153" t="s">
+        <v>1058</v>
+      </c>
+      <c r="J117" s="153" t="s">
         <v>1059</v>
-      </c>
-      <c r="J117" s="153" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18762,10 +18735,10 @@
         <v>6184</v>
       </c>
       <c r="B118" s="149" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C118" s="147" t="s">
         <v>1061</v>
-      </c>
-      <c r="C118" s="147" t="s">
-        <v>1062</v>
       </c>
       <c r="D118" s="148"/>
       <c r="E118" s="153"/>
@@ -18775,7 +18748,7 @@
       </c>
       <c r="H118" s="152"/>
       <c r="I118" s="153" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="J118" s="153"/>
     </row>
@@ -18784,10 +18757,10 @@
         <v>6185</v>
       </c>
       <c r="B119" s="149" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C119" s="147" t="s">
         <v>1064</v>
-      </c>
-      <c r="C119" s="147" t="s">
-        <v>1065</v>
       </c>
       <c r="D119" s="148"/>
       <c r="E119" s="153"/>
@@ -18797,7 +18770,7 @@
       </c>
       <c r="H119" s="152"/>
       <c r="I119" s="153" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="J119" s="153"/>
     </row>
@@ -18806,13 +18779,13 @@
         <v>6188</v>
       </c>
       <c r="B120" s="146" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C120" s="147" t="s">
         <v>1067</v>
       </c>
-      <c r="C120" s="147" t="s">
+      <c r="D120" s="148" t="s">
         <v>1068</v>
-      </c>
-      <c r="D120" s="148" t="s">
-        <v>1069</v>
       </c>
       <c r="E120" s="152">
         <v>44927</v>
@@ -18825,10 +18798,10 @@
       </c>
       <c r="H120" s="152"/>
       <c r="I120" s="153" t="s">
+        <v>1069</v>
+      </c>
+      <c r="J120" s="153" t="s">
         <v>1070</v>
-      </c>
-      <c r="J120" s="153" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18836,13 +18809,13 @@
         <v>6210</v>
       </c>
       <c r="B121" s="153" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C121" s="147" t="s">
         <v>1072</v>
       </c>
-      <c r="C121" s="147" t="s">
+      <c r="D121" s="148" t="s">
         <v>1073</v>
-      </c>
-      <c r="D121" s="148" t="s">
-        <v>1074</v>
       </c>
       <c r="E121" s="152">
         <v>44927</v>
@@ -18855,10 +18828,10 @@
       </c>
       <c r="H121" s="152"/>
       <c r="I121" s="153" t="s">
+        <v>1074</v>
+      </c>
+      <c r="J121" s="153" t="s">
         <v>1075</v>
-      </c>
-      <c r="J121" s="153" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18866,13 +18839,13 @@
         <v>6236</v>
       </c>
       <c r="B122" s="153" t="s">
+        <v>820</v>
+      </c>
+      <c r="C122" s="147" t="s">
         <v>821</v>
       </c>
-      <c r="C122" s="147" t="s">
-        <v>822</v>
-      </c>
       <c r="D122" s="148" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E122" s="152">
         <v>45292</v>
@@ -18885,10 +18858,10 @@
       </c>
       <c r="H122" s="152"/>
       <c r="I122" s="153" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J122" s="153" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18896,13 +18869,13 @@
         <v>6260</v>
       </c>
       <c r="B123" s="153" t="s">
+        <v>949</v>
+      </c>
+      <c r="C123" s="147" t="s">
         <v>950</v>
       </c>
-      <c r="C123" s="147" t="s">
-        <v>951</v>
-      </c>
       <c r="D123" s="148" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E123" s="152">
         <v>46753</v>
@@ -18915,10 +18888,10 @@
       </c>
       <c r="H123" s="152"/>
       <c r="I123" s="153" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J123" s="153" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18926,13 +18899,13 @@
         <v>6269</v>
       </c>
       <c r="B124" s="153" t="s">
+        <v>638</v>
+      </c>
+      <c r="C124" s="147" t="s">
         <v>639</v>
       </c>
-      <c r="C124" s="147" t="s">
+      <c r="D124" s="148" t="s">
         <v>640</v>
-      </c>
-      <c r="D124" s="148" t="s">
-        <v>641</v>
       </c>
       <c r="E124" s="152">
         <v>45658</v>
@@ -18945,10 +18918,10 @@
       </c>
       <c r="H124" s="152"/>
       <c r="I124" s="153" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J124" s="153" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18956,13 +18929,13 @@
         <v>6283</v>
       </c>
       <c r="B125" s="153" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C125" s="147" t="s">
         <v>1082</v>
       </c>
-      <c r="C125" s="147" t="s">
+      <c r="D125" s="148" t="s">
         <v>1083</v>
-      </c>
-      <c r="D125" s="148" t="s">
-        <v>1084</v>
       </c>
       <c r="E125" s="152">
         <v>46388</v>
@@ -18975,10 +18948,10 @@
       </c>
       <c r="H125" s="152"/>
       <c r="I125" s="153" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J125" s="153" t="s">
         <v>1085</v>
-      </c>
-      <c r="J125" s="153" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18986,13 +18959,13 @@
         <v>6510</v>
       </c>
       <c r="B126" s="146" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C126" s="147" t="s">
         <v>1087</v>
       </c>
-      <c r="C126" s="147" t="s">
-        <v>1088</v>
-      </c>
       <c r="D126" s="148" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E126" s="152">
         <v>45658</v>
@@ -19005,10 +18978,10 @@
       </c>
       <c r="H126" s="152"/>
       <c r="I126" s="153" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J126" s="153" t="s">
         <v>1089</v>
-      </c>
-      <c r="J126" s="153" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -19016,13 +18989,13 @@
         <v>6702</v>
       </c>
       <c r="B127" s="153" t="s">
+        <v>737</v>
+      </c>
+      <c r="C127" s="147" t="s">
         <v>738</v>
       </c>
-      <c r="C127" s="147" t="s">
-        <v>739</v>
-      </c>
       <c r="D127" s="148" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E127" s="153"/>
       <c r="F127" s="153"/>
@@ -19031,10 +19004,10 @@
       </c>
       <c r="H127" s="152"/>
       <c r="I127" s="153" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J127" s="153" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/사고관리_2024.xlsx
+++ b/uploads/사고관리_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\HanMi\ERP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C494D67E-68AB-4536-ABE3-73A45BD3FC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983E600A-CA83-4CB1-B95E-26268E5ACF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1584C468-C8C3-4370-969E-25E1637C2372}"/>
   </bookViews>
@@ -7179,8 +7179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2862407F-F83A-48D0-89D0-379E47A62224}">
   <dimension ref="A1:AK59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7501,7 +7501,7 @@
         <v>500000</v>
       </c>
       <c r="AF3" s="11">
-        <v>620000</v>
+        <v>630000</v>
       </c>
       <c r="AG3" s="177"/>
       <c r="AH3" s="23"/>

--- a/uploads/사고관리_2024.xlsx
+++ b/uploads/사고관리_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\HanMi\ERP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983E600A-CA83-4CB1-B95E-26268E5ACF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61994CE-7285-4CBB-B504-BBE85BEC117F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1584C468-C8C3-4370-969E-25E1637C2372}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="1396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3159" uniqueCount="1397">
   <si>
     <t>중구 을지로1가 하나은행본점 앞 노상</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -4781,6 +4781,10 @@
   </si>
   <si>
     <t>사고경위 참고</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>정찬성</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -7180,7 +7184,7 @@
   <dimension ref="A1:AK59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7381,7 +7385,7 @@
         <v>1358</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>5</v>
+        <v>1396</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>1358</v>
@@ -7501,7 +7505,7 @@
         <v>500000</v>
       </c>
       <c r="AF3" s="11">
-        <v>630000</v>
+        <v>620000</v>
       </c>
       <c r="AG3" s="177"/>
       <c r="AH3" s="23"/>
